--- a/Data_file/import_PO.xlsx
+++ b/Data_file/import_PO.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="15960" windowHeight="18090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$K$1:$K$489</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$A$489</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -4372,14 +4372,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M489"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141:M141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="14" width="16.33203125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="16.33203125" style="1"/>
+    <col min="1" max="14" width="16.28515625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="16.28515625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1">
@@ -4423,7 +4423,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="63.9" customHeight="1">
+    <row r="2" spans="1:13" ht="63.95" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="49.65" customHeight="1">
+    <row r="4" spans="1:13" ht="49.7" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>18</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="49.65" customHeight="1">
+    <row r="5" spans="1:13" ht="49.7" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>18</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="49.65" customHeight="1">
+    <row r="6" spans="1:13" ht="49.7" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="61.65" customHeight="1">
+    <row r="7" spans="1:13" ht="61.7" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="49.65" customHeight="1">
+    <row r="8" spans="1:13" ht="49.7" customHeight="1">
       <c r="A8" s="10" t="s">
         <v>28</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="49.65" customHeight="1">
+    <row r="9" spans="1:13" ht="49.7" customHeight="1">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="49.65" customHeight="1">
+    <row r="10" spans="1:13" ht="49.7" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>28</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="49.65" customHeight="1">
+    <row r="11" spans="1:13" ht="49.7" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>28</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="49.65" customHeight="1">
+    <row r="12" spans="1:13" ht="49.7" customHeight="1">
       <c r="A12" s="10" t="s">
         <v>28</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="49.65" customHeight="1">
+    <row r="13" spans="1:13" ht="49.7" customHeight="1">
       <c r="A13" s="10" t="s">
         <v>28</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="77.7" customHeight="1">
+    <row r="14" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A14" s="10" t="s">
         <v>44</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="77.7" customHeight="1">
+    <row r="15" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A15" s="10" t="s">
         <v>50</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="47.7" customHeight="1">
+    <row r="19" spans="1:13" ht="47.65" customHeight="1">
       <c r="A19" s="10" t="s">
         <v>62</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="49.65" customHeight="1">
+    <row r="25" spans="1:13" ht="49.7" customHeight="1">
       <c r="A25" s="10" t="s">
         <v>82</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="49.65" customHeight="1">
+    <row r="26" spans="1:13" ht="49.7" customHeight="1">
       <c r="A26" s="10" t="s">
         <v>88</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="35.700000000000003" customHeight="1">
+    <row r="29" spans="1:13" ht="35.65" customHeight="1">
       <c r="A29" s="10" t="s">
         <v>94</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="35.700000000000003" customHeight="1">
+    <row r="30" spans="1:13" ht="35.65" customHeight="1">
       <c r="A30" s="10" t="s">
         <v>94</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="49.65" customHeight="1">
+    <row r="53" spans="1:13" ht="49.7" customHeight="1">
       <c r="A53" s="10" t="s">
         <v>142</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="49.65" customHeight="1">
+    <row r="54" spans="1:13" ht="49.7" customHeight="1">
       <c r="A54" s="10" t="s">
         <v>148</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="89.7" customHeight="1">
+    <row r="60" spans="1:13" ht="89.65" customHeight="1">
       <c r="A60" s="10" t="s">
         <v>175</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="77.7" customHeight="1">
+    <row r="61" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A61" s="10" t="s">
         <v>181</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="77.7" customHeight="1">
+    <row r="62" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A62" s="10" t="s">
         <v>185</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="77.7" customHeight="1">
+    <row r="63" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A63" s="10" t="s">
         <v>185</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="77.7" customHeight="1">
+    <row r="64" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A64" s="10" t="s">
         <v>191</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="77.7" customHeight="1">
+    <row r="65" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A65" s="10" t="s">
         <v>191</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="77.7" customHeight="1">
+    <row r="66" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A66" s="10" t="s">
         <v>197</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="77.7" customHeight="1">
+    <row r="67" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A67" s="10" t="s">
         <v>201</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="77.7" customHeight="1">
+    <row r="68" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A68" s="10" t="s">
         <v>205</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="77.7" customHeight="1">
+    <row r="69" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A69" s="10" t="s">
         <v>208</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="77.7" customHeight="1">
+    <row r="70" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A70" s="10" t="s">
         <v>208</v>
       </c>
@@ -7226,7 +7226,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="77.7" customHeight="1">
+    <row r="71" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A71" s="10" t="s">
         <v>214</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="77.7" customHeight="1">
+    <row r="75" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A75" s="10" t="s">
         <v>230</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="77.7" customHeight="1">
+    <row r="76" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A76" s="10" t="s">
         <v>230</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="77.7" customHeight="1">
+    <row r="77" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A77" s="10" t="s">
         <v>233</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="77.7" customHeight="1">
+    <row r="78" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A78" s="10" t="s">
         <v>233</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="77.7" customHeight="1">
+    <row r="79" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A79" s="10" t="s">
         <v>237</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="77.7" customHeight="1">
+    <row r="80" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A80" s="10" t="s">
         <v>237</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="77.7" customHeight="1">
+    <row r="81" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A81" s="10" t="s">
         <v>237</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="77.7" customHeight="1">
+    <row r="82" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A82" s="10" t="s">
         <v>237</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="77.7" customHeight="1">
+    <row r="83" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A83" s="10" t="s">
         <v>245</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="77.7" customHeight="1">
+    <row r="84" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A84" s="10" t="s">
         <v>245</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="77.7" customHeight="1">
+    <row r="85" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A85" s="10" t="s">
         <v>245</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="77.7" customHeight="1">
+    <row r="86" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A86" s="10" t="s">
         <v>245</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="77.7" customHeight="1">
+    <row r="87" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A87" s="10" t="s">
         <v>245</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="133.65" customHeight="1">
+    <row r="88" spans="1:13" ht="133.69999999999999" customHeight="1">
       <c r="A88" s="10" t="s">
         <v>253</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="77.7" customHeight="1">
+    <row r="90" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A90" s="10" t="s">
         <v>264</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="77.7" customHeight="1">
+    <row r="91" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A91" s="10" t="s">
         <v>264</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="77.7" customHeight="1">
+    <row r="92" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A92" s="10" t="s">
         <v>264</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="77.7" customHeight="1">
+    <row r="93" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A93" s="10" t="s">
         <v>264</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="77.7" customHeight="1">
+    <row r="94" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A94" s="10" t="s">
         <v>264</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="77.7" customHeight="1">
+    <row r="95" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A95" s="10" t="s">
         <v>264</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="77.7" customHeight="1">
+    <row r="100" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A100" s="10" t="s">
         <v>281</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="77.7" customHeight="1">
+    <row r="101" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A101" s="10" t="s">
         <v>281</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="77.7" customHeight="1">
+    <row r="102" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A102" s="10" t="s">
         <v>281</v>
       </c>
@@ -8538,7 +8538,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="77.7" customHeight="1">
+    <row r="103" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A103" s="10" t="s">
         <v>281</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="97.65" customHeight="1">
+    <row r="104" spans="1:13" ht="97.7" customHeight="1">
       <c r="A104" s="10" t="s">
         <v>293</v>
       </c>
@@ -8620,7 +8620,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="61.65" customHeight="1">
+    <row r="105" spans="1:13" ht="61.7" customHeight="1">
       <c r="A105" s="10" t="s">
         <v>299</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="49.65" customHeight="1">
+    <row r="111" spans="1:13" ht="49.7" customHeight="1">
       <c r="A111" s="10" t="s">
         <v>317</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="76.05" customHeight="1">
+    <row r="112" spans="1:13" ht="76.150000000000006" customHeight="1">
       <c r="A112" s="10" t="s">
         <v>323</v>
       </c>
@@ -8948,7 +8948,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="76.05" customHeight="1">
+    <row r="113" spans="1:13" ht="76.150000000000006" customHeight="1">
       <c r="A113" s="10" t="s">
         <v>323</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="76.05" customHeight="1">
+    <row r="114" spans="1:13" ht="76.150000000000006" customHeight="1">
       <c r="A114" s="10" t="s">
         <v>323</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="76.05" customHeight="1">
+    <row r="115" spans="1:13" ht="76.150000000000006" customHeight="1">
       <c r="A115" s="10" t="s">
         <v>323</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="76.05" customHeight="1">
+    <row r="116" spans="1:13" ht="76.150000000000006" customHeight="1">
       <c r="A116" s="10" t="s">
         <v>323</v>
       </c>
@@ -9317,7 +9317,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="61.65" customHeight="1">
+    <row r="122" spans="1:13" ht="61.7" customHeight="1">
       <c r="A122" s="10" t="s">
         <v>347</v>
       </c>
@@ -9358,7 +9358,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="35.700000000000003" customHeight="1">
+    <row r="123" spans="1:13" ht="35.65" customHeight="1">
       <c r="A123" s="10" t="s">
         <v>347</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="49.65" customHeight="1">
+    <row r="124" spans="1:13" ht="49.7" customHeight="1">
       <c r="A124" s="10" t="s">
         <v>354</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="59.7" customHeight="1">
+    <row r="125" spans="1:13" ht="59.65" customHeight="1">
       <c r="A125" s="10" t="s">
         <v>354</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="59.7" customHeight="1">
+    <row r="126" spans="1:13" ht="59.65" customHeight="1">
       <c r="A126" s="10" t="s">
         <v>354</v>
       </c>
@@ -9686,7 +9686,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="89.7" customHeight="1">
+    <row r="131" spans="1:13" ht="89.65" customHeight="1">
       <c r="A131" s="10" t="s">
         <v>368</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="77.7" customHeight="1">
+    <row r="137" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A137" s="10" t="s">
         <v>390</v>
       </c>
@@ -9973,7 +9973,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="49.65" customHeight="1">
+    <row r="138" spans="1:13" ht="49.7" customHeight="1">
       <c r="A138" s="10" t="s">
         <v>395</v>
       </c>
@@ -10053,7 +10053,7 @@
       </c>
       <c r="M139" s="16"/>
     </row>
-    <row r="140" spans="1:13" ht="49.65" customHeight="1">
+    <row r="140" spans="1:13" ht="49.7" customHeight="1">
       <c r="A140" s="10" t="s">
         <v>404</v>
       </c>
@@ -10092,7 +10092,7 @@
       </c>
       <c r="M140" s="16"/>
     </row>
-    <row r="141" spans="1:13" ht="49.65" customHeight="1">
+    <row r="141" spans="1:13" ht="49.7" customHeight="1">
       <c r="A141" s="10" t="s">
         <v>409</v>
       </c>
@@ -10131,7 +10131,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="49.65" customHeight="1">
+    <row r="142" spans="1:13" ht="49.7" customHeight="1">
       <c r="A142" s="17" t="s">
         <v>415</v>
       </c>
@@ -10170,7 +10170,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="49.65" customHeight="1">
+    <row r="143" spans="1:13" ht="49.7" customHeight="1">
       <c r="A143" s="17" t="s">
         <v>421</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="49.65" customHeight="1">
+    <row r="144" spans="1:13" ht="49.7" customHeight="1">
       <c r="A144" s="17" t="s">
         <v>421</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="49.65" customHeight="1">
+    <row r="145" spans="1:13" ht="49.7" customHeight="1">
       <c r="A145" s="17" t="s">
         <v>421</v>
       </c>
@@ -10287,7 +10287,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="49.65" customHeight="1">
+    <row r="146" spans="1:13" ht="49.7" customHeight="1">
       <c r="A146" s="17" t="s">
         <v>421</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="49.65" customHeight="1">
+    <row r="147" spans="1:13" ht="49.7" customHeight="1">
       <c r="A147" s="17" t="s">
         <v>421</v>
       </c>
@@ -10365,7 +10365,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="49.65" customHeight="1">
+    <row r="148" spans="1:13" ht="49.7" customHeight="1">
       <c r="A148" s="17" t="s">
         <v>421</v>
       </c>
@@ -10404,7 +10404,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="49.65" customHeight="1">
+    <row r="149" spans="1:13" ht="49.7" customHeight="1">
       <c r="A149" s="17" t="s">
         <v>421</v>
       </c>
@@ -10443,7 +10443,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="49.65" customHeight="1">
+    <row r="150" spans="1:13" ht="49.7" customHeight="1">
       <c r="A150" s="17" t="s">
         <v>421</v>
       </c>
@@ -10482,7 +10482,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="49.65" customHeight="1">
+    <row r="151" spans="1:13" ht="49.7" customHeight="1">
       <c r="A151" s="17" t="s">
         <v>421</v>
       </c>
@@ -10521,7 +10521,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="49.65" customHeight="1">
+    <row r="152" spans="1:13" ht="49.7" customHeight="1">
       <c r="A152" s="17" t="s">
         <v>436</v>
       </c>
@@ -10560,7 +10560,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="49.65" customHeight="1">
+    <row r="153" spans="1:13" ht="49.7" customHeight="1">
       <c r="A153" s="17" t="s">
         <v>436</v>
       </c>
@@ -10599,7 +10599,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="49.65" customHeight="1">
+    <row r="154" spans="1:13" ht="49.7" customHeight="1">
       <c r="A154" s="17" t="s">
         <v>440</v>
       </c>
@@ -10638,7 +10638,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="49.65" customHeight="1">
+    <row r="155" spans="1:13" ht="49.7" customHeight="1">
       <c r="A155" s="17" t="s">
         <v>440</v>
       </c>
@@ -10677,7 +10677,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="49.65" customHeight="1">
+    <row r="156" spans="1:13" ht="49.7" customHeight="1">
       <c r="A156" s="17" t="s">
         <v>440</v>
       </c>
@@ -10716,7 +10716,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="49.65" customHeight="1">
+    <row r="157" spans="1:13" ht="49.7" customHeight="1">
       <c r="A157" s="17" t="s">
         <v>440</v>
       </c>
@@ -10755,7 +10755,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="49.65" customHeight="1">
+    <row r="158" spans="1:13" ht="49.7" customHeight="1">
       <c r="A158" s="17" t="s">
         <v>440</v>
       </c>
@@ -10794,7 +10794,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="49.65" customHeight="1">
+    <row r="159" spans="1:13" ht="49.7" customHeight="1">
       <c r="A159" s="17" t="s">
         <v>440</v>
       </c>
@@ -10833,7 +10833,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="49.65" customHeight="1">
+    <row r="160" spans="1:13" ht="49.7" customHeight="1">
       <c r="A160" s="17" t="s">
         <v>440</v>
       </c>
@@ -10872,7 +10872,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="49.65" customHeight="1">
+    <row r="161" spans="1:13" ht="49.7" customHeight="1">
       <c r="A161" s="17" t="s">
         <v>449</v>
       </c>
@@ -10911,7 +10911,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="49.65" customHeight="1">
+    <row r="162" spans="1:13" ht="49.7" customHeight="1">
       <c r="A162" s="17" t="s">
         <v>452</v>
       </c>
@@ -10948,7 +10948,7 @@
       </c>
       <c r="M162" s="16"/>
     </row>
-    <row r="163" spans="1:13" ht="49.65" customHeight="1">
+    <row r="163" spans="1:13" ht="49.7" customHeight="1">
       <c r="A163" s="17" t="s">
         <v>452</v>
       </c>
@@ -10985,7 +10985,7 @@
       </c>
       <c r="M163" s="16"/>
     </row>
-    <row r="164" spans="1:13" ht="49.65" customHeight="1">
+    <row r="164" spans="1:13" ht="49.7" customHeight="1">
       <c r="A164" s="17" t="s">
         <v>458</v>
       </c>
@@ -11024,7 +11024,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="49.65" customHeight="1">
+    <row r="165" spans="1:13" ht="49.7" customHeight="1">
       <c r="A165" s="17" t="s">
         <v>458</v>
       </c>
@@ -11063,7 +11063,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="49.65" customHeight="1">
+    <row r="166" spans="1:13" ht="49.7" customHeight="1">
       <c r="A166" s="17" t="s">
         <v>465</v>
       </c>
@@ -11102,7 +11102,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="49.65" customHeight="1">
+    <row r="167" spans="1:13" ht="49.7" customHeight="1">
       <c r="A167" s="17" t="s">
         <v>465</v>
       </c>
@@ -11141,7 +11141,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="49.65" customHeight="1">
+    <row r="168" spans="1:13" ht="49.7" customHeight="1">
       <c r="A168" s="17" t="s">
         <v>471</v>
       </c>
@@ -11180,7 +11180,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="49.65" customHeight="1">
+    <row r="169" spans="1:13" ht="49.7" customHeight="1">
       <c r="A169" s="17" t="s">
         <v>471</v>
       </c>
@@ -11219,7 +11219,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="49.65" customHeight="1">
+    <row r="170" spans="1:13" ht="49.7" customHeight="1">
       <c r="A170" s="17" t="s">
         <v>475</v>
       </c>
@@ -11260,7 +11260,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="49.65" customHeight="1">
+    <row r="171" spans="1:13" ht="49.7" customHeight="1">
       <c r="A171" s="17" t="s">
         <v>475</v>
       </c>
@@ -11301,7 +11301,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="49.65" customHeight="1">
+    <row r="172" spans="1:13" ht="49.7" customHeight="1">
       <c r="A172" s="17" t="s">
         <v>482</v>
       </c>
@@ -11342,7 +11342,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="49.65" customHeight="1">
+    <row r="173" spans="1:13" ht="49.7" customHeight="1">
       <c r="A173" s="17" t="s">
         <v>484</v>
       </c>
@@ -11379,7 +11379,7 @@
       </c>
       <c r="M173" s="16"/>
     </row>
-    <row r="174" spans="1:13" ht="49.65" customHeight="1">
+    <row r="174" spans="1:13" ht="49.7" customHeight="1">
       <c r="A174" s="17" t="s">
         <v>484</v>
       </c>
@@ -11416,7 +11416,7 @@
       </c>
       <c r="M174" s="16"/>
     </row>
-    <row r="175" spans="1:13" ht="49.65" customHeight="1">
+    <row r="175" spans="1:13" ht="49.7" customHeight="1">
       <c r="A175" s="17" t="s">
         <v>484</v>
       </c>
@@ -11453,7 +11453,7 @@
       </c>
       <c r="M175" s="16"/>
     </row>
-    <row r="176" spans="1:13" ht="49.65" customHeight="1">
+    <row r="176" spans="1:13" ht="49.7" customHeight="1">
       <c r="A176" s="17" t="s">
         <v>484</v>
       </c>
@@ -11490,7 +11490,7 @@
       </c>
       <c r="M176" s="16"/>
     </row>
-    <row r="177" spans="1:13" ht="49.65" customHeight="1">
+    <row r="177" spans="1:13" ht="49.7" customHeight="1">
       <c r="A177" s="17" t="s">
         <v>489</v>
       </c>
@@ -11529,7 +11529,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="49.65" customHeight="1">
+    <row r="178" spans="1:13" ht="49.7" customHeight="1">
       <c r="A178" s="17" t="s">
         <v>489</v>
       </c>
@@ -11568,7 +11568,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="49.65" customHeight="1">
+    <row r="179" spans="1:13" ht="49.7" customHeight="1">
       <c r="A179" s="17" t="s">
         <v>489</v>
       </c>
@@ -11607,7 +11607,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="49.65" customHeight="1">
+    <row r="180" spans="1:13" ht="49.7" customHeight="1">
       <c r="A180" s="17" t="s">
         <v>489</v>
       </c>
@@ -11646,7 +11646,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="49.65" customHeight="1">
+    <row r="181" spans="1:13" ht="49.7" customHeight="1">
       <c r="A181" s="17" t="s">
         <v>489</v>
       </c>
@@ -11685,7 +11685,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="49.65" customHeight="1">
+    <row r="182" spans="1:13" ht="49.7" customHeight="1">
       <c r="A182" s="17" t="s">
         <v>489</v>
       </c>
@@ -11724,7 +11724,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="49.65" customHeight="1">
+    <row r="183" spans="1:13" ht="49.7" customHeight="1">
       <c r="A183" s="17" t="s">
         <v>489</v>
       </c>
@@ -11763,7 +11763,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="49.65" customHeight="1">
+    <row r="184" spans="1:13" ht="49.7" customHeight="1">
       <c r="A184" s="17" t="s">
         <v>489</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="49.65" customHeight="1">
+    <row r="185" spans="1:13" ht="49.7" customHeight="1">
       <c r="A185" s="17" t="s">
         <v>489</v>
       </c>
@@ -11841,7 +11841,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="49.65" customHeight="1">
+    <row r="186" spans="1:13" ht="49.7" customHeight="1">
       <c r="A186" s="17" t="s">
         <v>500</v>
       </c>
@@ -11878,7 +11878,7 @@
       </c>
       <c r="M186" s="16"/>
     </row>
-    <row r="187" spans="1:13" ht="49.65" customHeight="1">
+    <row r="187" spans="1:13" ht="49.7" customHeight="1">
       <c r="A187" s="17" t="s">
         <v>500</v>
       </c>
@@ -11915,7 +11915,7 @@
       </c>
       <c r="M187" s="16"/>
     </row>
-    <row r="188" spans="1:13" ht="49.65" customHeight="1">
+    <row r="188" spans="1:13" ht="49.7" customHeight="1">
       <c r="A188" s="17" t="s">
         <v>500</v>
       </c>
@@ -11952,7 +11952,7 @@
       </c>
       <c r="M188" s="16"/>
     </row>
-    <row r="189" spans="1:13" ht="49.65" customHeight="1">
+    <row r="189" spans="1:13" ht="49.7" customHeight="1">
       <c r="A189" s="17" t="s">
         <v>500</v>
       </c>
@@ -11989,7 +11989,7 @@
       </c>
       <c r="M189" s="16"/>
     </row>
-    <row r="190" spans="1:13" ht="49.65" customHeight="1">
+    <row r="190" spans="1:13" ht="49.7" customHeight="1">
       <c r="A190" s="17" t="s">
         <v>500</v>
       </c>
@@ -12026,7 +12026,7 @@
       </c>
       <c r="M190" s="16"/>
     </row>
-    <row r="191" spans="1:13" ht="49.65" customHeight="1">
+    <row r="191" spans="1:13" ht="49.7" customHeight="1">
       <c r="A191" s="17" t="s">
         <v>500</v>
       </c>
@@ -12063,7 +12063,7 @@
       </c>
       <c r="M191" s="16"/>
     </row>
-    <row r="192" spans="1:13" ht="49.65" customHeight="1">
+    <row r="192" spans="1:13" ht="49.7" customHeight="1">
       <c r="A192" s="17" t="s">
         <v>500</v>
       </c>
@@ -12100,7 +12100,7 @@
       </c>
       <c r="M192" s="16"/>
     </row>
-    <row r="193" spans="1:13" ht="49.65" customHeight="1">
+    <row r="193" spans="1:13" ht="49.7" customHeight="1">
       <c r="A193" s="17" t="s">
         <v>500</v>
       </c>
@@ -12137,7 +12137,7 @@
       </c>
       <c r="M193" s="16"/>
     </row>
-    <row r="194" spans="1:13" ht="49.65" customHeight="1">
+    <row r="194" spans="1:13" ht="49.7" customHeight="1">
       <c r="A194" s="17" t="s">
         <v>500</v>
       </c>
@@ -12174,7 +12174,7 @@
       </c>
       <c r="M194" s="16"/>
     </row>
-    <row r="195" spans="1:13" ht="49.65" customHeight="1">
+    <row r="195" spans="1:13" ht="49.7" customHeight="1">
       <c r="A195" s="17" t="s">
         <v>510</v>
       </c>
@@ -12215,7 +12215,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="49.65" customHeight="1">
+    <row r="196" spans="1:13" ht="49.7" customHeight="1">
       <c r="A196" s="17" t="s">
         <v>516</v>
       </c>
@@ -12254,7 +12254,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="49.65" customHeight="1">
+    <row r="197" spans="1:13" ht="49.7" customHeight="1">
       <c r="A197" s="17" t="s">
         <v>521</v>
       </c>
@@ -12291,7 +12291,7 @@
       </c>
       <c r="M197" s="16"/>
     </row>
-    <row r="198" spans="1:13" ht="49.65" customHeight="1">
+    <row r="198" spans="1:13" ht="49.7" customHeight="1">
       <c r="A198" s="17" t="s">
         <v>523</v>
       </c>
@@ -12328,7 +12328,7 @@
       </c>
       <c r="M198" s="16"/>
     </row>
-    <row r="199" spans="1:13" ht="49.65" customHeight="1">
+    <row r="199" spans="1:13" ht="49.7" customHeight="1">
       <c r="A199" s="17" t="s">
         <v>523</v>
       </c>
@@ -12365,7 +12365,7 @@
       </c>
       <c r="M199" s="16"/>
     </row>
-    <row r="200" spans="1:13" ht="49.65" customHeight="1">
+    <row r="200" spans="1:13" ht="49.7" customHeight="1">
       <c r="A200" s="17" t="s">
         <v>523</v>
       </c>
@@ -12402,7 +12402,7 @@
       </c>
       <c r="M200" s="16"/>
     </row>
-    <row r="201" spans="1:13" ht="49.65" customHeight="1">
+    <row r="201" spans="1:13" ht="49.7" customHeight="1">
       <c r="A201" s="17" t="s">
         <v>523</v>
       </c>
@@ -12439,7 +12439,7 @@
       </c>
       <c r="M201" s="16"/>
     </row>
-    <row r="202" spans="1:13" ht="49.65" customHeight="1">
+    <row r="202" spans="1:13" ht="49.7" customHeight="1">
       <c r="A202" s="17" t="s">
         <v>523</v>
       </c>
@@ -12476,7 +12476,7 @@
       </c>
       <c r="M202" s="16"/>
     </row>
-    <row r="203" spans="1:13" ht="49.65" customHeight="1">
+    <row r="203" spans="1:13" ht="49.7" customHeight="1">
       <c r="A203" s="17" t="s">
         <v>523</v>
       </c>
@@ -12513,7 +12513,7 @@
       </c>
       <c r="M203" s="16"/>
     </row>
-    <row r="204" spans="1:13" ht="49.65" customHeight="1">
+    <row r="204" spans="1:13" ht="49.7" customHeight="1">
       <c r="A204" s="17" t="s">
         <v>530</v>
       </c>
@@ -12550,7 +12550,7 @@
       </c>
       <c r="M204" s="16"/>
     </row>
-    <row r="205" spans="1:13" ht="49.65" customHeight="1">
+    <row r="205" spans="1:13" ht="49.7" customHeight="1">
       <c r="A205" s="17" t="s">
         <v>532</v>
       </c>
@@ -12591,7 +12591,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="49.65" customHeight="1">
+    <row r="206" spans="1:13" ht="49.7" customHeight="1">
       <c r="A206" s="17" t="s">
         <v>538</v>
       </c>
@@ -12630,7 +12630,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="49.65" customHeight="1">
+    <row r="207" spans="1:13" ht="49.7" customHeight="1">
       <c r="A207" s="17" t="s">
         <v>538</v>
       </c>
@@ -12669,7 +12669,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="49.65" customHeight="1">
+    <row r="208" spans="1:13" ht="49.7" customHeight="1">
       <c r="A208" s="17" t="s">
         <v>543</v>
       </c>
@@ -12706,7 +12706,7 @@
       </c>
       <c r="M208" s="16"/>
     </row>
-    <row r="209" spans="1:13" ht="49.65" customHeight="1">
+    <row r="209" spans="1:13" ht="49.7" customHeight="1">
       <c r="A209" s="17" t="s">
         <v>543</v>
       </c>
@@ -12743,7 +12743,7 @@
       </c>
       <c r="M209" s="16"/>
     </row>
-    <row r="210" spans="1:13" ht="49.65" customHeight="1">
+    <row r="210" spans="1:13" ht="49.7" customHeight="1">
       <c r="A210" s="17" t="s">
         <v>546</v>
       </c>
@@ -12780,7 +12780,7 @@
       </c>
       <c r="M210" s="16"/>
     </row>
-    <row r="211" spans="1:13" ht="49.65" customHeight="1">
+    <row r="211" spans="1:13" ht="49.7" customHeight="1">
       <c r="A211" s="17" t="s">
         <v>548</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="49.65" customHeight="1">
+    <row r="212" spans="1:13" ht="49.7" customHeight="1">
       <c r="A212" s="17" t="s">
         <v>548</v>
       </c>
@@ -12858,7 +12858,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="49.65" customHeight="1">
+    <row r="213" spans="1:13" ht="49.7" customHeight="1">
       <c r="A213" s="17" t="s">
         <v>548</v>
       </c>
@@ -12897,7 +12897,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="49.65" customHeight="1">
+    <row r="214" spans="1:13" ht="49.7" customHeight="1">
       <c r="A214" s="17" t="s">
         <v>548</v>
       </c>
@@ -12936,7 +12936,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="49.65" customHeight="1">
+    <row r="215" spans="1:13" ht="49.7" customHeight="1">
       <c r="A215" s="17" t="s">
         <v>548</v>
       </c>
@@ -12975,7 +12975,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="49.65" customHeight="1">
+    <row r="216" spans="1:13" ht="49.7" customHeight="1">
       <c r="A216" s="17" t="s">
         <v>548</v>
       </c>
@@ -13014,7 +13014,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="49.65" customHeight="1">
+    <row r="217" spans="1:13" ht="49.7" customHeight="1">
       <c r="A217" s="17" t="s">
         <v>556</v>
       </c>
@@ -13053,7 +13053,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="49.65" customHeight="1">
+    <row r="218" spans="1:13" ht="49.7" customHeight="1">
       <c r="A218" s="17" t="s">
         <v>556</v>
       </c>
@@ -13092,7 +13092,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="49.65" customHeight="1">
+    <row r="219" spans="1:13" ht="49.7" customHeight="1">
       <c r="A219" s="17" t="s">
         <v>560</v>
       </c>
@@ -13131,7 +13131,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="49.65" customHeight="1">
+    <row r="220" spans="1:13" ht="49.7" customHeight="1">
       <c r="A220" s="17" t="s">
         <v>560</v>
       </c>
@@ -13170,7 +13170,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="49.65" customHeight="1">
+    <row r="221" spans="1:13" ht="49.7" customHeight="1">
       <c r="A221" s="17" t="s">
         <v>560</v>
       </c>
@@ -13209,7 +13209,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="49.65" customHeight="1">
+    <row r="222" spans="1:13" ht="49.7" customHeight="1">
       <c r="A222" s="17" t="s">
         <v>560</v>
       </c>
@@ -13248,7 +13248,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="49.65" customHeight="1">
+    <row r="223" spans="1:13" ht="49.7" customHeight="1">
       <c r="A223" s="17" t="s">
         <v>560</v>
       </c>
@@ -13287,7 +13287,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="49.65" customHeight="1">
+    <row r="224" spans="1:13" ht="49.7" customHeight="1">
       <c r="A224" s="17" t="s">
         <v>560</v>
       </c>
@@ -13326,7 +13326,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="49.65" customHeight="1">
+    <row r="225" spans="1:13" ht="49.7" customHeight="1">
       <c r="A225" s="17" t="s">
         <v>568</v>
       </c>
@@ -13365,7 +13365,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="49.65" customHeight="1">
+    <row r="226" spans="1:13" ht="49.7" customHeight="1">
       <c r="A226" s="17" t="s">
         <v>568</v>
       </c>
@@ -13404,7 +13404,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="49.65" customHeight="1">
+    <row r="227" spans="1:13" ht="49.7" customHeight="1">
       <c r="A227" s="17" t="s">
         <v>568</v>
       </c>
@@ -13443,7 +13443,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="49.65" customHeight="1">
+    <row r="228" spans="1:13" ht="49.7" customHeight="1">
       <c r="A228" s="17" t="s">
         <v>568</v>
       </c>
@@ -13482,7 +13482,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="49.65" customHeight="1">
+    <row r="229" spans="1:13" ht="49.7" customHeight="1">
       <c r="A229" s="17" t="s">
         <v>568</v>
       </c>
@@ -13521,7 +13521,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="49.65" customHeight="1">
+    <row r="230" spans="1:13" ht="49.7" customHeight="1">
       <c r="A230" s="17" t="s">
         <v>568</v>
       </c>
@@ -13560,7 +13560,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="49.65" customHeight="1">
+    <row r="231" spans="1:13" ht="49.7" customHeight="1">
       <c r="A231" s="17" t="s">
         <v>568</v>
       </c>
@@ -13599,7 +13599,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="49.65" customHeight="1">
+    <row r="232" spans="1:13" ht="49.7" customHeight="1">
       <c r="A232" s="17" t="s">
         <v>568</v>
       </c>
@@ -13638,7 +13638,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="49.65" customHeight="1">
+    <row r="233" spans="1:13" ht="49.7" customHeight="1">
       <c r="A233" s="17" t="s">
         <v>578</v>
       </c>
@@ -13675,7 +13675,7 @@
       </c>
       <c r="M233" s="16"/>
     </row>
-    <row r="234" spans="1:13" ht="49.65" customHeight="1">
+    <row r="234" spans="1:13" ht="49.7" customHeight="1">
       <c r="A234" s="17" t="s">
         <v>580</v>
       </c>
@@ -13714,7 +13714,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="49.65" customHeight="1">
+    <row r="235" spans="1:13" ht="49.7" customHeight="1">
       <c r="A235" s="17" t="s">
         <v>585</v>
       </c>
@@ -13753,7 +13753,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="49.65" customHeight="1">
+    <row r="236" spans="1:13" ht="49.7" customHeight="1">
       <c r="A236" s="17" t="s">
         <v>585</v>
       </c>
@@ -13792,7 +13792,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="49.65" customHeight="1">
+    <row r="237" spans="1:13" ht="49.7" customHeight="1">
       <c r="A237" s="17" t="s">
         <v>585</v>
       </c>
@@ -13831,7 +13831,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="49.65" customHeight="1">
+    <row r="238" spans="1:13" ht="49.7" customHeight="1">
       <c r="A238" s="17" t="s">
         <v>585</v>
       </c>
@@ -13870,7 +13870,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="49.65" customHeight="1">
+    <row r="239" spans="1:13" ht="49.7" customHeight="1">
       <c r="A239" s="17" t="s">
         <v>585</v>
       </c>
@@ -13909,7 +13909,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="49.65" customHeight="1">
+    <row r="240" spans="1:13" ht="49.7" customHeight="1">
       <c r="A240" s="17" t="s">
         <v>585</v>
       </c>
@@ -13948,7 +13948,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="49.65" customHeight="1">
+    <row r="241" spans="1:13" ht="49.7" customHeight="1">
       <c r="A241" s="17" t="s">
         <v>585</v>
       </c>
@@ -13987,7 +13987,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="49.65" customHeight="1">
+    <row r="242" spans="1:13" ht="49.7" customHeight="1">
       <c r="A242" s="17" t="s">
         <v>585</v>
       </c>
@@ -14026,7 +14026,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="49.65" customHeight="1">
+    <row r="243" spans="1:13" ht="49.7" customHeight="1">
       <c r="A243" s="17" t="s">
         <v>585</v>
       </c>
@@ -14065,7 +14065,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="244" spans="1:13" ht="49.65" customHeight="1">
+    <row r="244" spans="1:13" ht="49.7" customHeight="1">
       <c r="A244" s="17" t="s">
         <v>596</v>
       </c>
@@ -14104,7 +14104,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="49.65" customHeight="1">
+    <row r="245" spans="1:13" ht="49.7" customHeight="1">
       <c r="A245" s="17" t="s">
         <v>596</v>
       </c>
@@ -14143,7 +14143,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="49.65" customHeight="1">
+    <row r="246" spans="1:13" ht="49.7" customHeight="1">
       <c r="A246" s="17" t="s">
         <v>596</v>
       </c>
@@ -14182,7 +14182,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="247" spans="1:13" ht="49.65" customHeight="1">
+    <row r="247" spans="1:13" ht="49.7" customHeight="1">
       <c r="A247" s="17" t="s">
         <v>596</v>
       </c>
@@ -14221,7 +14221,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="49.65" customHeight="1">
+    <row r="248" spans="1:13" ht="49.7" customHeight="1">
       <c r="A248" s="17" t="s">
         <v>596</v>
       </c>
@@ -14260,7 +14260,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="49.65" customHeight="1">
+    <row r="249" spans="1:13" ht="49.7" customHeight="1">
       <c r="A249" s="17" t="s">
         <v>596</v>
       </c>
@@ -14299,7 +14299,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="49.65" customHeight="1">
+    <row r="250" spans="1:13" ht="49.7" customHeight="1">
       <c r="A250" s="17" t="s">
         <v>604</v>
       </c>
@@ -14338,7 +14338,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="49.65" customHeight="1">
+    <row r="251" spans="1:13" ht="49.7" customHeight="1">
       <c r="A251" s="17" t="s">
         <v>604</v>
       </c>
@@ -14377,7 +14377,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="49.65" customHeight="1">
+    <row r="252" spans="1:13" ht="49.7" customHeight="1">
       <c r="A252" s="17" t="s">
         <v>608</v>
       </c>
@@ -14416,7 +14416,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="253" spans="1:13" ht="49.65" customHeight="1">
+    <row r="253" spans="1:13" ht="49.7" customHeight="1">
       <c r="A253" s="17" t="s">
         <v>608</v>
       </c>
@@ -14455,7 +14455,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="49.65" customHeight="1">
+    <row r="254" spans="1:13" ht="49.7" customHeight="1">
       <c r="A254" s="17" t="s">
         <v>608</v>
       </c>
@@ -14494,7 +14494,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="49.65" customHeight="1">
+    <row r="255" spans="1:13" ht="49.7" customHeight="1">
       <c r="A255" s="17" t="s">
         <v>608</v>
       </c>
@@ -14533,7 +14533,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="256" spans="1:13" ht="49.65" customHeight="1">
+    <row r="256" spans="1:13" ht="49.7" customHeight="1">
       <c r="A256" s="17" t="s">
         <v>616</v>
       </c>
@@ -14570,7 +14570,7 @@
       </c>
       <c r="M256" s="16"/>
     </row>
-    <row r="257" spans="1:13" ht="49.65" customHeight="1">
+    <row r="257" spans="1:13" ht="49.7" customHeight="1">
       <c r="A257" s="17" t="s">
         <v>616</v>
       </c>
@@ -14607,7 +14607,7 @@
       </c>
       <c r="M257" s="16"/>
     </row>
-    <row r="258" spans="1:13" ht="49.65" customHeight="1">
+    <row r="258" spans="1:13" ht="49.7" customHeight="1">
       <c r="A258" s="17" t="s">
         <v>616</v>
       </c>
@@ -14644,7 +14644,7 @@
       </c>
       <c r="M258" s="16"/>
     </row>
-    <row r="259" spans="1:13" ht="49.65" customHeight="1">
+    <row r="259" spans="1:13" ht="49.7" customHeight="1">
       <c r="A259" s="17" t="s">
         <v>616</v>
       </c>
@@ -14681,7 +14681,7 @@
       </c>
       <c r="M259" s="16"/>
     </row>
-    <row r="260" spans="1:13" ht="49.65" customHeight="1">
+    <row r="260" spans="1:13" ht="49.7" customHeight="1">
       <c r="A260" s="17" t="s">
         <v>616</v>
       </c>
@@ -14718,7 +14718,7 @@
       </c>
       <c r="M260" s="16"/>
     </row>
-    <row r="261" spans="1:13" ht="49.65" customHeight="1">
+    <row r="261" spans="1:13" ht="49.7" customHeight="1">
       <c r="A261" s="17" t="s">
         <v>616</v>
       </c>
@@ -14755,7 +14755,7 @@
       </c>
       <c r="M261" s="16"/>
     </row>
-    <row r="262" spans="1:13" ht="49.65" customHeight="1">
+    <row r="262" spans="1:13" ht="49.7" customHeight="1">
       <c r="A262" s="17" t="s">
         <v>616</v>
       </c>
@@ -14792,7 +14792,7 @@
       </c>
       <c r="M262" s="16"/>
     </row>
-    <row r="263" spans="1:13" ht="49.65" customHeight="1">
+    <row r="263" spans="1:13" ht="49.7" customHeight="1">
       <c r="A263" s="17" t="s">
         <v>616</v>
       </c>
@@ -14829,7 +14829,7 @@
       </c>
       <c r="M263" s="16"/>
     </row>
-    <row r="264" spans="1:13" ht="49.65" customHeight="1">
+    <row r="264" spans="1:13" ht="49.7" customHeight="1">
       <c r="A264" s="17" t="s">
         <v>616</v>
       </c>
@@ -14866,7 +14866,7 @@
       </c>
       <c r="M264" s="16"/>
     </row>
-    <row r="265" spans="1:13" ht="49.65" customHeight="1">
+    <row r="265" spans="1:13" ht="49.7" customHeight="1">
       <c r="A265" s="17" t="s">
         <v>616</v>
       </c>
@@ -14903,7 +14903,7 @@
       </c>
       <c r="M265" s="16"/>
     </row>
-    <row r="266" spans="1:13" ht="49.65" customHeight="1">
+    <row r="266" spans="1:13" ht="49.7" customHeight="1">
       <c r="A266" s="17" t="s">
         <v>616</v>
       </c>
@@ -14940,7 +14940,7 @@
       </c>
       <c r="M266" s="16"/>
     </row>
-    <row r="267" spans="1:13" ht="49.65" customHeight="1">
+    <row r="267" spans="1:13" ht="49.7" customHeight="1">
       <c r="A267" s="17" t="s">
         <v>616</v>
       </c>
@@ -14977,7 +14977,7 @@
       </c>
       <c r="M267" s="16"/>
     </row>
-    <row r="268" spans="1:13" ht="49.65" customHeight="1">
+    <row r="268" spans="1:13" ht="49.7" customHeight="1">
       <c r="A268" s="17" t="s">
         <v>616</v>
       </c>
@@ -15014,7 +15014,7 @@
       </c>
       <c r="M268" s="16"/>
     </row>
-    <row r="269" spans="1:13" ht="49.65" customHeight="1">
+    <row r="269" spans="1:13" ht="49.7" customHeight="1">
       <c r="A269" s="17" t="s">
         <v>616</v>
       </c>
@@ -15051,7 +15051,7 @@
       </c>
       <c r="M269" s="16"/>
     </row>
-    <row r="270" spans="1:13" ht="49.65" customHeight="1">
+    <row r="270" spans="1:13" ht="49.7" customHeight="1">
       <c r="A270" s="17" t="s">
         <v>616</v>
       </c>
@@ -15088,7 +15088,7 @@
       </c>
       <c r="M270" s="16"/>
     </row>
-    <row r="271" spans="1:13" ht="49.65" customHeight="1">
+    <row r="271" spans="1:13" ht="49.7" customHeight="1">
       <c r="A271" s="17" t="s">
         <v>616</v>
       </c>
@@ -15125,7 +15125,7 @@
       </c>
       <c r="M271" s="16"/>
     </row>
-    <row r="272" spans="1:13" ht="49.65" customHeight="1">
+    <row r="272" spans="1:13" ht="49.7" customHeight="1">
       <c r="A272" s="17" t="s">
         <v>616</v>
       </c>
@@ -15162,7 +15162,7 @@
       </c>
       <c r="M272" s="16"/>
     </row>
-    <row r="273" spans="1:13" ht="49.65" customHeight="1">
+    <row r="273" spans="1:13" ht="49.7" customHeight="1">
       <c r="A273" s="17" t="s">
         <v>616</v>
       </c>
@@ -15199,7 +15199,7 @@
       </c>
       <c r="M273" s="16"/>
     </row>
-    <row r="274" spans="1:13" ht="49.65" customHeight="1">
+    <row r="274" spans="1:13" ht="49.7" customHeight="1">
       <c r="A274" s="17" t="s">
         <v>616</v>
       </c>
@@ -15236,7 +15236,7 @@
       </c>
       <c r="M274" s="16"/>
     </row>
-    <row r="275" spans="1:13" ht="49.65" customHeight="1">
+    <row r="275" spans="1:13" ht="49.7" customHeight="1">
       <c r="A275" s="17" t="s">
         <v>616</v>
       </c>
@@ -15273,7 +15273,7 @@
       </c>
       <c r="M275" s="16"/>
     </row>
-    <row r="276" spans="1:13" ht="49.65" customHeight="1">
+    <row r="276" spans="1:13" ht="49.7" customHeight="1">
       <c r="A276" s="17" t="s">
         <v>616</v>
       </c>
@@ -15310,7 +15310,7 @@
       </c>
       <c r="M276" s="16"/>
     </row>
-    <row r="277" spans="1:13" ht="49.65" customHeight="1">
+    <row r="277" spans="1:13" ht="49.7" customHeight="1">
       <c r="A277" s="17" t="s">
         <v>616</v>
       </c>
@@ -15347,7 +15347,7 @@
       </c>
       <c r="M277" s="16"/>
     </row>
-    <row r="278" spans="1:13" ht="49.65" customHeight="1">
+    <row r="278" spans="1:13" ht="49.7" customHeight="1">
       <c r="A278" s="17" t="s">
         <v>616</v>
       </c>
@@ -15384,7 +15384,7 @@
       </c>
       <c r="M278" s="16"/>
     </row>
-    <row r="279" spans="1:13" ht="49.65" customHeight="1">
+    <row r="279" spans="1:13" ht="49.7" customHeight="1">
       <c r="A279" s="17" t="s">
         <v>616</v>
       </c>
@@ -15421,7 +15421,7 @@
       </c>
       <c r="M279" s="16"/>
     </row>
-    <row r="280" spans="1:13" ht="49.65" customHeight="1">
+    <row r="280" spans="1:13" ht="49.7" customHeight="1">
       <c r="A280" s="17" t="s">
         <v>616</v>
       </c>
@@ -15458,7 +15458,7 @@
       </c>
       <c r="M280" s="16"/>
     </row>
-    <row r="281" spans="1:13" ht="49.65" customHeight="1">
+    <row r="281" spans="1:13" ht="49.7" customHeight="1">
       <c r="A281" s="17" t="s">
         <v>616</v>
       </c>
@@ -15495,7 +15495,7 @@
       </c>
       <c r="M281" s="16"/>
     </row>
-    <row r="282" spans="1:13" ht="49.65" customHeight="1">
+    <row r="282" spans="1:13" ht="49.7" customHeight="1">
       <c r="A282" s="17" t="s">
         <v>616</v>
       </c>
@@ -15532,7 +15532,7 @@
       </c>
       <c r="M282" s="16"/>
     </row>
-    <row r="283" spans="1:13" ht="49.65" customHeight="1">
+    <row r="283" spans="1:13" ht="49.7" customHeight="1">
       <c r="A283" s="17" t="s">
         <v>616</v>
       </c>
@@ -15569,7 +15569,7 @@
       </c>
       <c r="M283" s="16"/>
     </row>
-    <row r="284" spans="1:13" ht="49.65" customHeight="1">
+    <row r="284" spans="1:13" ht="49.7" customHeight="1">
       <c r="A284" s="17" t="s">
         <v>645</v>
       </c>
@@ -15606,7 +15606,7 @@
       </c>
       <c r="M284" s="16"/>
     </row>
-    <row r="285" spans="1:13" ht="49.65" customHeight="1">
+    <row r="285" spans="1:13" ht="49.7" customHeight="1">
       <c r="A285" s="17" t="s">
         <v>645</v>
       </c>
@@ -15643,7 +15643,7 @@
       </c>
       <c r="M285" s="16"/>
     </row>
-    <row r="286" spans="1:13" ht="49.65" customHeight="1">
+    <row r="286" spans="1:13" ht="49.7" customHeight="1">
       <c r="A286" s="17" t="s">
         <v>645</v>
       </c>
@@ -15680,7 +15680,7 @@
       </c>
       <c r="M286" s="16"/>
     </row>
-    <row r="287" spans="1:13" ht="49.65" customHeight="1">
+    <row r="287" spans="1:13" ht="49.7" customHeight="1">
       <c r="A287" s="17" t="s">
         <v>645</v>
       </c>
@@ -15717,7 +15717,7 @@
       </c>
       <c r="M287" s="16"/>
     </row>
-    <row r="288" spans="1:13" ht="49.65" customHeight="1">
+    <row r="288" spans="1:13" ht="49.7" customHeight="1">
       <c r="A288" s="17" t="s">
         <v>650</v>
       </c>
@@ -15754,7 +15754,7 @@
       </c>
       <c r="M288" s="16"/>
     </row>
-    <row r="289" spans="1:13" ht="49.65" customHeight="1">
+    <row r="289" spans="1:13" ht="49.7" customHeight="1">
       <c r="A289" s="17" t="s">
         <v>650</v>
       </c>
@@ -15791,7 +15791,7 @@
       </c>
       <c r="M289" s="16"/>
     </row>
-    <row r="290" spans="1:13" ht="49.65" customHeight="1">
+    <row r="290" spans="1:13" ht="49.7" customHeight="1">
       <c r="A290" s="17" t="s">
         <v>653</v>
       </c>
@@ -15828,7 +15828,7 @@
       </c>
       <c r="M290" s="16"/>
     </row>
-    <row r="291" spans="1:13" ht="49.65" customHeight="1">
+    <row r="291" spans="1:13" ht="49.7" customHeight="1">
       <c r="A291" s="17" t="s">
         <v>653</v>
       </c>
@@ -15865,7 +15865,7 @@
       </c>
       <c r="M291" s="16"/>
     </row>
-    <row r="292" spans="1:13" ht="49.65" customHeight="1">
+    <row r="292" spans="1:13" ht="49.7" customHeight="1">
       <c r="A292" s="17" t="s">
         <v>653</v>
       </c>
@@ -15902,7 +15902,7 @@
       </c>
       <c r="M292" s="16"/>
     </row>
-    <row r="293" spans="1:13" ht="49.65" customHeight="1">
+    <row r="293" spans="1:13" ht="49.7" customHeight="1">
       <c r="A293" s="17" t="s">
         <v>653</v>
       </c>
@@ -15939,7 +15939,7 @@
       </c>
       <c r="M293" s="16"/>
     </row>
-    <row r="294" spans="1:13" ht="49.65" customHeight="1">
+    <row r="294" spans="1:13" ht="49.7" customHeight="1">
       <c r="A294" s="17" t="s">
         <v>653</v>
       </c>
@@ -15976,7 +15976,7 @@
       </c>
       <c r="M294" s="16"/>
     </row>
-    <row r="295" spans="1:13" ht="49.65" customHeight="1">
+    <row r="295" spans="1:13" ht="49.7" customHeight="1">
       <c r="A295" s="17" t="s">
         <v>653</v>
       </c>
@@ -16013,7 +16013,7 @@
       </c>
       <c r="M295" s="16"/>
     </row>
-    <row r="296" spans="1:13" ht="49.65" customHeight="1">
+    <row r="296" spans="1:13" ht="49.7" customHeight="1">
       <c r="A296" s="17" t="s">
         <v>653</v>
       </c>
@@ -16050,7 +16050,7 @@
       </c>
       <c r="M296" s="16"/>
     </row>
-    <row r="297" spans="1:13" ht="49.65" customHeight="1">
+    <row r="297" spans="1:13" ht="49.7" customHeight="1">
       <c r="A297" s="17" t="s">
         <v>653</v>
       </c>
@@ -16087,7 +16087,7 @@
       </c>
       <c r="M297" s="16"/>
     </row>
-    <row r="298" spans="1:13" ht="49.65" customHeight="1">
+    <row r="298" spans="1:13" ht="49.7" customHeight="1">
       <c r="A298" s="17" t="s">
         <v>653</v>
       </c>
@@ -16124,7 +16124,7 @@
       </c>
       <c r="M298" s="16"/>
     </row>
-    <row r="299" spans="1:13" ht="49.65" customHeight="1">
+    <row r="299" spans="1:13" ht="49.7" customHeight="1">
       <c r="A299" s="17" t="s">
         <v>653</v>
       </c>
@@ -16161,7 +16161,7 @@
       </c>
       <c r="M299" s="16"/>
     </row>
-    <row r="300" spans="1:13" ht="49.65" customHeight="1">
+    <row r="300" spans="1:13" ht="49.7" customHeight="1">
       <c r="A300" s="17" t="s">
         <v>653</v>
       </c>
@@ -16198,7 +16198,7 @@
       </c>
       <c r="M300" s="16"/>
     </row>
-    <row r="301" spans="1:13" ht="49.65" customHeight="1">
+    <row r="301" spans="1:13" ht="49.7" customHeight="1">
       <c r="A301" s="17" t="s">
         <v>653</v>
       </c>
@@ -16235,7 +16235,7 @@
       </c>
       <c r="M301" s="16"/>
     </row>
-    <row r="302" spans="1:13" ht="49.65" customHeight="1">
+    <row r="302" spans="1:13" ht="49.7" customHeight="1">
       <c r="A302" s="17" t="s">
         <v>653</v>
       </c>
@@ -16272,7 +16272,7 @@
       </c>
       <c r="M302" s="16"/>
     </row>
-    <row r="303" spans="1:13" ht="49.65" customHeight="1">
+    <row r="303" spans="1:13" ht="49.7" customHeight="1">
       <c r="A303" s="17" t="s">
         <v>653</v>
       </c>
@@ -16309,7 +16309,7 @@
       </c>
       <c r="M303" s="16"/>
     </row>
-    <row r="304" spans="1:13" ht="49.65" customHeight="1">
+    <row r="304" spans="1:13" ht="49.7" customHeight="1">
       <c r="A304" s="17" t="s">
         <v>653</v>
       </c>
@@ -16346,7 +16346,7 @@
       </c>
       <c r="M304" s="16"/>
     </row>
-    <row r="305" spans="1:13" ht="49.65" customHeight="1">
+    <row r="305" spans="1:13" ht="49.7" customHeight="1">
       <c r="A305" s="17" t="s">
         <v>653</v>
       </c>
@@ -16383,7 +16383,7 @@
       </c>
       <c r="M305" s="16"/>
     </row>
-    <row r="306" spans="1:13" ht="49.65" customHeight="1">
+    <row r="306" spans="1:13" ht="49.7" customHeight="1">
       <c r="A306" s="17" t="s">
         <v>653</v>
       </c>
@@ -16420,7 +16420,7 @@
       </c>
       <c r="M306" s="16"/>
     </row>
-    <row r="307" spans="1:13" ht="49.65" customHeight="1">
+    <row r="307" spans="1:13" ht="49.7" customHeight="1">
       <c r="A307" s="17" t="s">
         <v>671</v>
       </c>
@@ -16457,7 +16457,7 @@
       </c>
       <c r="M307" s="16"/>
     </row>
-    <row r="308" spans="1:13" ht="49.65" customHeight="1">
+    <row r="308" spans="1:13" ht="49.7" customHeight="1">
       <c r="A308" s="17" t="s">
         <v>671</v>
       </c>
@@ -16494,7 +16494,7 @@
       </c>
       <c r="M308" s="16"/>
     </row>
-    <row r="309" spans="1:13" ht="49.65" customHeight="1">
+    <row r="309" spans="1:13" ht="49.7" customHeight="1">
       <c r="A309" s="17" t="s">
         <v>671</v>
       </c>
@@ -16531,7 +16531,7 @@
       </c>
       <c r="M309" s="16"/>
     </row>
-    <row r="310" spans="1:13" ht="49.65" customHeight="1">
+    <row r="310" spans="1:13" ht="49.7" customHeight="1">
       <c r="A310" s="17" t="s">
         <v>671</v>
       </c>
@@ -16568,7 +16568,7 @@
       </c>
       <c r="M310" s="16"/>
     </row>
-    <row r="311" spans="1:13" ht="49.65" customHeight="1">
+    <row r="311" spans="1:13" ht="49.7" customHeight="1">
       <c r="A311" s="17" t="s">
         <v>671</v>
       </c>
@@ -16605,7 +16605,7 @@
       </c>
       <c r="M311" s="16"/>
     </row>
-    <row r="312" spans="1:13" ht="49.65" customHeight="1">
+    <row r="312" spans="1:13" ht="49.7" customHeight="1">
       <c r="A312" s="17" t="s">
         <v>671</v>
       </c>
@@ -16642,7 +16642,7 @@
       </c>
       <c r="M312" s="16"/>
     </row>
-    <row r="313" spans="1:13" ht="49.65" customHeight="1">
+    <row r="313" spans="1:13" ht="49.7" customHeight="1">
       <c r="A313" s="17" t="s">
         <v>671</v>
       </c>
@@ -16679,7 +16679,7 @@
       </c>
       <c r="M313" s="16"/>
     </row>
-    <row r="314" spans="1:13" ht="49.65" customHeight="1">
+    <row r="314" spans="1:13" ht="49.7" customHeight="1">
       <c r="A314" s="17" t="s">
         <v>671</v>
       </c>
@@ -16716,7 +16716,7 @@
       </c>
       <c r="M314" s="16"/>
     </row>
-    <row r="315" spans="1:13" ht="49.65" customHeight="1">
+    <row r="315" spans="1:13" ht="49.7" customHeight="1">
       <c r="A315" s="17" t="s">
         <v>671</v>
       </c>
@@ -16753,7 +16753,7 @@
       </c>
       <c r="M315" s="16"/>
     </row>
-    <row r="316" spans="1:13" ht="49.65" customHeight="1">
+    <row r="316" spans="1:13" ht="49.7" customHeight="1">
       <c r="A316" s="17" t="s">
         <v>671</v>
       </c>
@@ -16790,7 +16790,7 @@
       </c>
       <c r="M316" s="16"/>
     </row>
-    <row r="317" spans="1:13" ht="49.65" customHeight="1">
+    <row r="317" spans="1:13" ht="49.7" customHeight="1">
       <c r="A317" s="17" t="s">
         <v>671</v>
       </c>
@@ -16827,7 +16827,7 @@
       </c>
       <c r="M317" s="16"/>
     </row>
-    <row r="318" spans="1:13" ht="49.65" customHeight="1">
+    <row r="318" spans="1:13" ht="49.7" customHeight="1">
       <c r="A318" s="17" t="s">
         <v>671</v>
       </c>
@@ -16864,7 +16864,7 @@
       </c>
       <c r="M318" s="16"/>
     </row>
-    <row r="319" spans="1:13" ht="49.65" customHeight="1">
+    <row r="319" spans="1:13" ht="49.7" customHeight="1">
       <c r="A319" s="17" t="s">
         <v>671</v>
       </c>
@@ -16901,7 +16901,7 @@
       </c>
       <c r="M319" s="16"/>
     </row>
-    <row r="320" spans="1:13" ht="49.65" customHeight="1">
+    <row r="320" spans="1:13" ht="49.7" customHeight="1">
       <c r="A320" s="17" t="s">
         <v>671</v>
       </c>
@@ -16938,7 +16938,7 @@
       </c>
       <c r="M320" s="16"/>
     </row>
-    <row r="321" spans="1:13" ht="49.65" customHeight="1">
+    <row r="321" spans="1:13" ht="49.7" customHeight="1">
       <c r="A321" s="17" t="s">
         <v>671</v>
       </c>
@@ -16975,7 +16975,7 @@
       </c>
       <c r="M321" s="16"/>
     </row>
-    <row r="322" spans="1:13" ht="49.65" customHeight="1">
+    <row r="322" spans="1:13" ht="49.7" customHeight="1">
       <c r="A322" s="17" t="s">
         <v>671</v>
       </c>
@@ -17012,7 +17012,7 @@
       </c>
       <c r="M322" s="16"/>
     </row>
-    <row r="323" spans="1:13" ht="49.65" customHeight="1">
+    <row r="323" spans="1:13" ht="49.7" customHeight="1">
       <c r="A323" s="17" t="s">
         <v>671</v>
       </c>
@@ -17049,7 +17049,7 @@
       </c>
       <c r="M323" s="16"/>
     </row>
-    <row r="324" spans="1:13" ht="49.65" customHeight="1">
+    <row r="324" spans="1:13" ht="49.7" customHeight="1">
       <c r="A324" s="17" t="s">
         <v>671</v>
       </c>
@@ -17086,7 +17086,7 @@
       </c>
       <c r="M324" s="16"/>
     </row>
-    <row r="325" spans="1:13" ht="49.65" customHeight="1">
+    <row r="325" spans="1:13" ht="49.7" customHeight="1">
       <c r="A325" s="17" t="s">
         <v>671</v>
       </c>
@@ -17123,7 +17123,7 @@
       </c>
       <c r="M325" s="16"/>
     </row>
-    <row r="326" spans="1:13" ht="49.65" customHeight="1">
+    <row r="326" spans="1:13" ht="49.7" customHeight="1">
       <c r="A326" s="17" t="s">
         <v>671</v>
       </c>
@@ -17160,7 +17160,7 @@
       </c>
       <c r="M326" s="16"/>
     </row>
-    <row r="327" spans="1:13" ht="49.65" customHeight="1">
+    <row r="327" spans="1:13" ht="49.7" customHeight="1">
       <c r="A327" s="17" t="s">
         <v>671</v>
       </c>
@@ -17197,7 +17197,7 @@
       </c>
       <c r="M327" s="16"/>
     </row>
-    <row r="328" spans="1:13" ht="49.65" customHeight="1">
+    <row r="328" spans="1:13" ht="49.7" customHeight="1">
       <c r="A328" s="17" t="s">
         <v>671</v>
       </c>
@@ -17234,7 +17234,7 @@
       </c>
       <c r="M328" s="16"/>
     </row>
-    <row r="329" spans="1:13" ht="49.65" customHeight="1">
+    <row r="329" spans="1:13" ht="49.7" customHeight="1">
       <c r="A329" s="17" t="s">
         <v>694</v>
       </c>
@@ -17273,7 +17273,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="330" spans="1:13" ht="49.65" customHeight="1">
+    <row r="330" spans="1:13" ht="49.7" customHeight="1">
       <c r="A330" s="17" t="s">
         <v>694</v>
       </c>
@@ -17312,7 +17312,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="331" spans="1:13" ht="49.65" customHeight="1">
+    <row r="331" spans="1:13" ht="49.7" customHeight="1">
       <c r="A331" s="17" t="s">
         <v>694</v>
       </c>
@@ -17351,7 +17351,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="332" spans="1:13" ht="49.65" customHeight="1">
+    <row r="332" spans="1:13" ht="49.7" customHeight="1">
       <c r="A332" s="17" t="s">
         <v>694</v>
       </c>
@@ -17390,7 +17390,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="333" spans="1:13" ht="49.65" customHeight="1">
+    <row r="333" spans="1:13" ht="49.7" customHeight="1">
       <c r="A333" s="17" t="s">
         <v>694</v>
       </c>
@@ -17429,7 +17429,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="334" spans="1:13" ht="49.65" customHeight="1">
+    <row r="334" spans="1:13" ht="49.7" customHeight="1">
       <c r="A334" s="17" t="s">
         <v>694</v>
       </c>
@@ -17468,7 +17468,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="335" spans="1:13" ht="49.65" customHeight="1">
+    <row r="335" spans="1:13" ht="49.7" customHeight="1">
       <c r="A335" s="17" t="s">
         <v>694</v>
       </c>
@@ -17507,7 +17507,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="336" spans="1:13" ht="49.65" customHeight="1">
+    <row r="336" spans="1:13" ht="49.7" customHeight="1">
       <c r="A336" s="17" t="s">
         <v>694</v>
       </c>
@@ -17546,7 +17546,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="337" spans="1:13" ht="49.65" customHeight="1">
+    <row r="337" spans="1:13" ht="49.7" customHeight="1">
       <c r="A337" s="17" t="s">
         <v>694</v>
       </c>
@@ -17585,7 +17585,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="338" spans="1:13" ht="49.65" customHeight="1">
+    <row r="338" spans="1:13" ht="49.7" customHeight="1">
       <c r="A338" s="17" t="s">
         <v>694</v>
       </c>
@@ -17624,7 +17624,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="339" spans="1:13" ht="49.65" customHeight="1">
+    <row r="339" spans="1:13" ht="49.7" customHeight="1">
       <c r="A339" s="17" t="s">
         <v>694</v>
       </c>
@@ -17663,7 +17663,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="340" spans="1:13" ht="49.65" customHeight="1">
+    <row r="340" spans="1:13" ht="49.7" customHeight="1">
       <c r="A340" s="17" t="s">
         <v>694</v>
       </c>
@@ -17702,7 +17702,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="341" spans="1:13" ht="49.65" customHeight="1">
+    <row r="341" spans="1:13" ht="49.7" customHeight="1">
       <c r="A341" s="17" t="s">
         <v>708</v>
       </c>
@@ -17741,7 +17741,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="342" spans="1:13" ht="49.65" customHeight="1">
+    <row r="342" spans="1:13" ht="49.7" customHeight="1">
       <c r="A342" s="17" t="s">
         <v>708</v>
       </c>
@@ -17780,7 +17780,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="343" spans="1:13" ht="49.65" customHeight="1">
+    <row r="343" spans="1:13" ht="49.7" customHeight="1">
       <c r="A343" s="17" t="s">
         <v>708</v>
       </c>
@@ -17819,7 +17819,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="344" spans="1:13" ht="49.65" customHeight="1">
+    <row r="344" spans="1:13" ht="49.7" customHeight="1">
       <c r="A344" s="17" t="s">
         <v>708</v>
       </c>
@@ -17858,7 +17858,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="345" spans="1:13" ht="49.65" customHeight="1">
+    <row r="345" spans="1:13" ht="49.7" customHeight="1">
       <c r="A345" s="17" t="s">
         <v>708</v>
       </c>
@@ -17897,7 +17897,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="346" spans="1:13" ht="49.65" customHeight="1">
+    <row r="346" spans="1:13" ht="49.7" customHeight="1">
       <c r="A346" s="17" t="s">
         <v>708</v>
       </c>
@@ -17936,7 +17936,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="347" spans="1:13" ht="49.65" customHeight="1">
+    <row r="347" spans="1:13" ht="49.7" customHeight="1">
       <c r="A347" s="17" t="s">
         <v>708</v>
       </c>
@@ -17975,7 +17975,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="348" spans="1:13" ht="49.65" customHeight="1">
+    <row r="348" spans="1:13" ht="49.7" customHeight="1">
       <c r="A348" s="17" t="s">
         <v>708</v>
       </c>
@@ -18014,7 +18014,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="349" spans="1:13" ht="49.65" customHeight="1">
+    <row r="349" spans="1:13" ht="49.7" customHeight="1">
       <c r="A349" s="17" t="s">
         <v>708</v>
       </c>
@@ -18053,7 +18053,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="350" spans="1:13" ht="49.65" customHeight="1">
+    <row r="350" spans="1:13" ht="49.7" customHeight="1">
       <c r="A350" s="17" t="s">
         <v>708</v>
       </c>
@@ -18092,7 +18092,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="351" spans="1:13" ht="49.65" customHeight="1">
+    <row r="351" spans="1:13" ht="49.7" customHeight="1">
       <c r="A351" s="17" t="s">
         <v>708</v>
       </c>
@@ -18131,7 +18131,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="352" spans="1:13" ht="49.65" customHeight="1">
+    <row r="352" spans="1:13" ht="49.7" customHeight="1">
       <c r="A352" s="17" t="s">
         <v>708</v>
       </c>
@@ -18170,7 +18170,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="353" spans="1:13" ht="49.65" customHeight="1">
+    <row r="353" spans="1:13" ht="49.7" customHeight="1">
       <c r="A353" s="17" t="s">
         <v>722</v>
       </c>
@@ -18209,7 +18209,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="354" spans="1:13" ht="49.65" customHeight="1">
+    <row r="354" spans="1:13" ht="49.7" customHeight="1">
       <c r="A354" s="17" t="s">
         <v>722</v>
       </c>
@@ -18248,7 +18248,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="355" spans="1:13" ht="49.65" customHeight="1">
+    <row r="355" spans="1:13" ht="49.7" customHeight="1">
       <c r="A355" s="17" t="s">
         <v>722</v>
       </c>
@@ -18287,7 +18287,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="356" spans="1:13" ht="49.65" customHeight="1">
+    <row r="356" spans="1:13" ht="49.7" customHeight="1">
       <c r="A356" s="17" t="s">
         <v>722</v>
       </c>
@@ -18326,7 +18326,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="357" spans="1:13" ht="49.65" customHeight="1">
+    <row r="357" spans="1:13" ht="49.7" customHeight="1">
       <c r="A357" s="17" t="s">
         <v>722</v>
       </c>
@@ -18365,7 +18365,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="358" spans="1:13" ht="49.65" customHeight="1">
+    <row r="358" spans="1:13" ht="49.7" customHeight="1">
       <c r="A358" s="17" t="s">
         <v>722</v>
       </c>
@@ -18404,7 +18404,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="359" spans="1:13" ht="49.65" customHeight="1">
+    <row r="359" spans="1:13" ht="49.7" customHeight="1">
       <c r="A359" s="17" t="s">
         <v>722</v>
       </c>
@@ -18443,7 +18443,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="360" spans="1:13" ht="49.65" customHeight="1">
+    <row r="360" spans="1:13" ht="49.7" customHeight="1">
       <c r="A360" s="17" t="s">
         <v>722</v>
       </c>
@@ -18482,7 +18482,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="361" spans="1:13" ht="49.65" customHeight="1">
+    <row r="361" spans="1:13" ht="49.7" customHeight="1">
       <c r="A361" s="17" t="s">
         <v>722</v>
       </c>
@@ -18521,7 +18521,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="362" spans="1:13" ht="49.65" customHeight="1">
+    <row r="362" spans="1:13" ht="49.7" customHeight="1">
       <c r="A362" s="17" t="s">
         <v>733</v>
       </c>
@@ -18558,7 +18558,7 @@
       </c>
       <c r="M362" s="16"/>
     </row>
-    <row r="363" spans="1:13" ht="49.65" customHeight="1">
+    <row r="363" spans="1:13" ht="49.7" customHeight="1">
       <c r="A363" s="17" t="s">
         <v>733</v>
       </c>
@@ -18595,7 +18595,7 @@
       </c>
       <c r="M363" s="16"/>
     </row>
-    <row r="364" spans="1:13" ht="49.65" customHeight="1">
+    <row r="364" spans="1:13" ht="49.7" customHeight="1">
       <c r="A364" s="17" t="s">
         <v>733</v>
       </c>
@@ -18632,7 +18632,7 @@
       </c>
       <c r="M364" s="16"/>
     </row>
-    <row r="365" spans="1:13" ht="49.65" customHeight="1">
+    <row r="365" spans="1:13" ht="49.7" customHeight="1">
       <c r="A365" s="17" t="s">
         <v>733</v>
       </c>
@@ -18669,7 +18669,7 @@
       </c>
       <c r="M365" s="16"/>
     </row>
-    <row r="366" spans="1:13" ht="49.65" customHeight="1">
+    <row r="366" spans="1:13" ht="49.7" customHeight="1">
       <c r="A366" s="17" t="s">
         <v>733</v>
       </c>
@@ -18706,7 +18706,7 @@
       </c>
       <c r="M366" s="16"/>
     </row>
-    <row r="367" spans="1:13" ht="49.65" customHeight="1">
+    <row r="367" spans="1:13" ht="49.7" customHeight="1">
       <c r="A367" s="17" t="s">
         <v>733</v>
       </c>
@@ -18743,7 +18743,7 @@
       </c>
       <c r="M367" s="16"/>
     </row>
-    <row r="368" spans="1:13" ht="49.65" customHeight="1">
+    <row r="368" spans="1:13" ht="49.7" customHeight="1">
       <c r="A368" s="17" t="s">
         <v>733</v>
       </c>
@@ -18780,7 +18780,7 @@
       </c>
       <c r="M368" s="16"/>
     </row>
-    <row r="369" spans="1:13" ht="49.65" customHeight="1">
+    <row r="369" spans="1:13" ht="49.7" customHeight="1">
       <c r="A369" s="17" t="s">
         <v>733</v>
       </c>
@@ -18817,7 +18817,7 @@
       </c>
       <c r="M369" s="16"/>
     </row>
-    <row r="370" spans="1:13" ht="49.65" customHeight="1">
+    <row r="370" spans="1:13" ht="49.7" customHeight="1">
       <c r="A370" s="17" t="s">
         <v>733</v>
       </c>
@@ -18854,7 +18854,7 @@
       </c>
       <c r="M370" s="16"/>
     </row>
-    <row r="371" spans="1:13" ht="49.65" customHeight="1">
+    <row r="371" spans="1:13" ht="49.7" customHeight="1">
       <c r="A371" s="17" t="s">
         <v>733</v>
       </c>
@@ -18891,7 +18891,7 @@
       </c>
       <c r="M371" s="16"/>
     </row>
-    <row r="372" spans="1:13" ht="49.65" customHeight="1">
+    <row r="372" spans="1:13" ht="49.7" customHeight="1">
       <c r="A372" s="17" t="s">
         <v>733</v>
       </c>
@@ -18928,7 +18928,7 @@
       </c>
       <c r="M372" s="16"/>
     </row>
-    <row r="373" spans="1:13" ht="49.65" customHeight="1">
+    <row r="373" spans="1:13" ht="49.7" customHeight="1">
       <c r="A373" s="17" t="s">
         <v>733</v>
       </c>
@@ -18965,7 +18965,7 @@
       </c>
       <c r="M373" s="16"/>
     </row>
-    <row r="374" spans="1:13" ht="49.65" customHeight="1">
+    <row r="374" spans="1:13" ht="49.7" customHeight="1">
       <c r="A374" s="17" t="s">
         <v>733</v>
       </c>
@@ -19002,7 +19002,7 @@
       </c>
       <c r="M374" s="16"/>
     </row>
-    <row r="375" spans="1:13" ht="49.65" customHeight="1">
+    <row r="375" spans="1:13" ht="49.7" customHeight="1">
       <c r="A375" s="17" t="s">
         <v>733</v>
       </c>
@@ -19039,7 +19039,7 @@
       </c>
       <c r="M375" s="16"/>
     </row>
-    <row r="376" spans="1:13" ht="49.65" customHeight="1">
+    <row r="376" spans="1:13" ht="49.7" customHeight="1">
       <c r="A376" s="17" t="s">
         <v>733</v>
       </c>
@@ -19076,7 +19076,7 @@
       </c>
       <c r="M376" s="16"/>
     </row>
-    <row r="377" spans="1:13" ht="49.65" customHeight="1">
+    <row r="377" spans="1:13" ht="49.7" customHeight="1">
       <c r="A377" s="17" t="s">
         <v>733</v>
       </c>
@@ -19113,7 +19113,7 @@
       </c>
       <c r="M377" s="16"/>
     </row>
-    <row r="378" spans="1:13" ht="49.65" customHeight="1">
+    <row r="378" spans="1:13" ht="49.7" customHeight="1">
       <c r="A378" s="17" t="s">
         <v>733</v>
       </c>
@@ -19150,7 +19150,7 @@
       </c>
       <c r="M378" s="16"/>
     </row>
-    <row r="379" spans="1:13" ht="49.65" customHeight="1">
+    <row r="379" spans="1:13" ht="49.7" customHeight="1">
       <c r="A379" s="17" t="s">
         <v>733</v>
       </c>
@@ -19187,7 +19187,7 @@
       </c>
       <c r="M379" s="16"/>
     </row>
-    <row r="380" spans="1:13" ht="49.65" customHeight="1">
+    <row r="380" spans="1:13" ht="49.7" customHeight="1">
       <c r="A380" s="17" t="s">
         <v>733</v>
       </c>
@@ -19224,7 +19224,7 @@
       </c>
       <c r="M380" s="16"/>
     </row>
-    <row r="381" spans="1:13" ht="49.65" customHeight="1">
+    <row r="381" spans="1:13" ht="49.7" customHeight="1">
       <c r="A381" s="17" t="s">
         <v>733</v>
       </c>
@@ -19261,7 +19261,7 @@
       </c>
       <c r="M381" s="16"/>
     </row>
-    <row r="382" spans="1:13" ht="49.65" customHeight="1">
+    <row r="382" spans="1:13" ht="49.7" customHeight="1">
       <c r="A382" s="17" t="s">
         <v>733</v>
       </c>
@@ -19298,7 +19298,7 @@
       </c>
       <c r="M382" s="16"/>
     </row>
-    <row r="383" spans="1:13" ht="49.65" customHeight="1">
+    <row r="383" spans="1:13" ht="49.7" customHeight="1">
       <c r="A383" s="17" t="s">
         <v>733</v>
       </c>
@@ -19335,7 +19335,7 @@
       </c>
       <c r="M383" s="16"/>
     </row>
-    <row r="384" spans="1:13" ht="49.65" customHeight="1">
+    <row r="384" spans="1:13" ht="49.7" customHeight="1">
       <c r="A384" s="17" t="s">
         <v>733</v>
       </c>
@@ -19372,7 +19372,7 @@
       </c>
       <c r="M384" s="16"/>
     </row>
-    <row r="385" spans="1:13" ht="49.65" customHeight="1">
+    <row r="385" spans="1:13" ht="49.7" customHeight="1">
       <c r="A385" s="17" t="s">
         <v>733</v>
       </c>
@@ -19409,7 +19409,7 @@
       </c>
       <c r="M385" s="16"/>
     </row>
-    <row r="386" spans="1:13" ht="49.65" customHeight="1">
+    <row r="386" spans="1:13" ht="49.7" customHeight="1">
       <c r="A386" s="17" t="s">
         <v>757</v>
       </c>
@@ -19446,7 +19446,7 @@
       </c>
       <c r="M386" s="16"/>
     </row>
-    <row r="387" spans="1:13" ht="49.65" customHeight="1">
+    <row r="387" spans="1:13" ht="49.7" customHeight="1">
       <c r="A387" s="17" t="s">
         <v>757</v>
       </c>
@@ -19483,7 +19483,7 @@
       </c>
       <c r="M387" s="16"/>
     </row>
-    <row r="388" spans="1:13" ht="49.65" customHeight="1">
+    <row r="388" spans="1:13" ht="49.7" customHeight="1">
       <c r="A388" s="17" t="s">
         <v>757</v>
       </c>
@@ -19520,7 +19520,7 @@
       </c>
       <c r="M388" s="16"/>
     </row>
-    <row r="389" spans="1:13" ht="49.65" customHeight="1">
+    <row r="389" spans="1:13" ht="49.7" customHeight="1">
       <c r="A389" s="17" t="s">
         <v>757</v>
       </c>
@@ -19557,7 +19557,7 @@
       </c>
       <c r="M389" s="16"/>
     </row>
-    <row r="390" spans="1:13" ht="49.65" customHeight="1">
+    <row r="390" spans="1:13" ht="49.7" customHeight="1">
       <c r="A390" s="17" t="s">
         <v>762</v>
       </c>
@@ -19594,7 +19594,7 @@
       </c>
       <c r="M390" s="16"/>
     </row>
-    <row r="391" spans="1:13" ht="49.65" customHeight="1">
+    <row r="391" spans="1:13" ht="49.7" customHeight="1">
       <c r="A391" s="17" t="s">
         <v>762</v>
       </c>
@@ -19631,7 +19631,7 @@
       </c>
       <c r="M391" s="16"/>
     </row>
-    <row r="392" spans="1:13" ht="49.65" customHeight="1">
+    <row r="392" spans="1:13" ht="49.7" customHeight="1">
       <c r="A392" s="17" t="s">
         <v>765</v>
       </c>
@@ -19668,7 +19668,7 @@
       </c>
       <c r="M392" s="16"/>
     </row>
-    <row r="393" spans="1:13" ht="49.65" customHeight="1">
+    <row r="393" spans="1:13" ht="49.7" customHeight="1">
       <c r="A393" s="17" t="s">
         <v>765</v>
       </c>
@@ -19705,7 +19705,7 @@
       </c>
       <c r="M393" s="16"/>
     </row>
-    <row r="394" spans="1:13" ht="49.65" customHeight="1">
+    <row r="394" spans="1:13" ht="49.7" customHeight="1">
       <c r="A394" s="17" t="s">
         <v>765</v>
       </c>
@@ -19742,7 +19742,7 @@
       </c>
       <c r="M394" s="16"/>
     </row>
-    <row r="395" spans="1:13" ht="49.65" customHeight="1">
+    <row r="395" spans="1:13" ht="49.7" customHeight="1">
       <c r="A395" s="17" t="s">
         <v>765</v>
       </c>
@@ -19779,7 +19779,7 @@
       </c>
       <c r="M395" s="16"/>
     </row>
-    <row r="396" spans="1:13" ht="49.65" customHeight="1">
+    <row r="396" spans="1:13" ht="49.7" customHeight="1">
       <c r="A396" s="17" t="s">
         <v>765</v>
       </c>
@@ -19816,7 +19816,7 @@
       </c>
       <c r="M396" s="16"/>
     </row>
-    <row r="397" spans="1:13" ht="49.65" customHeight="1">
+    <row r="397" spans="1:13" ht="49.7" customHeight="1">
       <c r="A397" s="17" t="s">
         <v>765</v>
       </c>
@@ -19853,7 +19853,7 @@
       </c>
       <c r="M397" s="16"/>
     </row>
-    <row r="398" spans="1:13" ht="49.65" customHeight="1">
+    <row r="398" spans="1:13" ht="49.7" customHeight="1">
       <c r="A398" s="17" t="s">
         <v>765</v>
       </c>
@@ -19890,7 +19890,7 @@
       </c>
       <c r="M398" s="16"/>
     </row>
-    <row r="399" spans="1:13" ht="49.65" customHeight="1">
+    <row r="399" spans="1:13" ht="49.7" customHeight="1">
       <c r="A399" s="17" t="s">
         <v>765</v>
       </c>
@@ -19927,7 +19927,7 @@
       </c>
       <c r="M399" s="16"/>
     </row>
-    <row r="400" spans="1:13" ht="49.65" customHeight="1">
+    <row r="400" spans="1:13" ht="49.7" customHeight="1">
       <c r="A400" s="17" t="s">
         <v>765</v>
       </c>
@@ -19964,7 +19964,7 @@
       </c>
       <c r="M400" s="16"/>
     </row>
-    <row r="401" spans="1:13" ht="49.65" customHeight="1">
+    <row r="401" spans="1:13" ht="49.7" customHeight="1">
       <c r="A401" s="17" t="s">
         <v>765</v>
       </c>
@@ -20001,7 +20001,7 @@
       </c>
       <c r="M401" s="16"/>
     </row>
-    <row r="402" spans="1:13" ht="49.65" customHeight="1">
+    <row r="402" spans="1:13" ht="49.7" customHeight="1">
       <c r="A402" s="17" t="s">
         <v>765</v>
       </c>
@@ -20038,7 +20038,7 @@
       </c>
       <c r="M402" s="16"/>
     </row>
-    <row r="403" spans="1:13" ht="49.65" customHeight="1">
+    <row r="403" spans="1:13" ht="49.7" customHeight="1">
       <c r="A403" s="17" t="s">
         <v>765</v>
       </c>
@@ -20075,7 +20075,7 @@
       </c>
       <c r="M403" s="16"/>
     </row>
-    <row r="404" spans="1:13" ht="49.65" customHeight="1">
+    <row r="404" spans="1:13" ht="49.7" customHeight="1">
       <c r="A404" s="17" t="s">
         <v>765</v>
       </c>
@@ -20112,7 +20112,7 @@
       </c>
       <c r="M404" s="16"/>
     </row>
-    <row r="405" spans="1:13" ht="49.65" customHeight="1">
+    <row r="405" spans="1:13" ht="49.7" customHeight="1">
       <c r="A405" s="17" t="s">
         <v>765</v>
       </c>
@@ -20149,7 +20149,7 @@
       </c>
       <c r="M405" s="16"/>
     </row>
-    <row r="406" spans="1:13" ht="49.65" customHeight="1">
+    <row r="406" spans="1:13" ht="49.7" customHeight="1">
       <c r="A406" s="17" t="s">
         <v>765</v>
       </c>
@@ -20186,7 +20186,7 @@
       </c>
       <c r="M406" s="16"/>
     </row>
-    <row r="407" spans="1:13" ht="49.65" customHeight="1">
+    <row r="407" spans="1:13" ht="49.7" customHeight="1">
       <c r="A407" s="17" t="s">
         <v>765</v>
       </c>
@@ -20223,7 +20223,7 @@
       </c>
       <c r="M407" s="16"/>
     </row>
-    <row r="408" spans="1:13" ht="49.65" customHeight="1">
+    <row r="408" spans="1:13" ht="49.7" customHeight="1">
       <c r="A408" s="17" t="s">
         <v>765</v>
       </c>
@@ -20260,7 +20260,7 @@
       </c>
       <c r="M408" s="16"/>
     </row>
-    <row r="409" spans="1:13" ht="49.65" customHeight="1">
+    <row r="409" spans="1:13" ht="49.7" customHeight="1">
       <c r="A409" s="17" t="s">
         <v>765</v>
       </c>
@@ -20297,7 +20297,7 @@
       </c>
       <c r="M409" s="16"/>
     </row>
-    <row r="410" spans="1:13" ht="49.65" customHeight="1">
+    <row r="410" spans="1:13" ht="49.7" customHeight="1">
       <c r="A410" s="17" t="s">
         <v>785</v>
       </c>
@@ -20334,7 +20334,7 @@
       </c>
       <c r="M410" s="16"/>
     </row>
-    <row r="411" spans="1:13" ht="49.65" customHeight="1">
+    <row r="411" spans="1:13" ht="49.7" customHeight="1">
       <c r="A411" s="17" t="s">
         <v>785</v>
       </c>
@@ -20371,7 +20371,7 @@
       </c>
       <c r="M411" s="16"/>
     </row>
-    <row r="412" spans="1:13" ht="49.65" customHeight="1">
+    <row r="412" spans="1:13" ht="49.7" customHeight="1">
       <c r="A412" s="17" t="s">
         <v>788</v>
       </c>
@@ -20408,7 +20408,7 @@
       </c>
       <c r="M412" s="16"/>
     </row>
-    <row r="413" spans="1:13" ht="49.65" customHeight="1">
+    <row r="413" spans="1:13" ht="49.7" customHeight="1">
       <c r="A413" s="17" t="s">
         <v>790</v>
       </c>
@@ -20447,7 +20447,7 @@
       </c>
       <c r="M413" s="16"/>
     </row>
-    <row r="414" spans="1:13" ht="49.65" customHeight="1">
+    <row r="414" spans="1:13" ht="49.7" customHeight="1">
       <c r="A414" s="17" t="s">
         <v>790</v>
       </c>
@@ -20486,7 +20486,7 @@
       </c>
       <c r="M414" s="16"/>
     </row>
-    <row r="415" spans="1:13" ht="49.65" customHeight="1">
+    <row r="415" spans="1:13" ht="49.7" customHeight="1">
       <c r="A415" s="17" t="s">
         <v>794</v>
       </c>
@@ -20525,7 +20525,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="416" spans="1:13" ht="49.65" customHeight="1">
+    <row r="416" spans="1:13" ht="49.7" customHeight="1">
       <c r="A416" s="17" t="s">
         <v>798</v>
       </c>
@@ -20564,7 +20564,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="417" spans="1:13" ht="49.65" customHeight="1">
+    <row r="417" spans="1:13" ht="49.7" customHeight="1">
       <c r="A417" s="17" t="s">
         <v>801</v>
       </c>
@@ -20603,7 +20603,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="418" spans="1:13" ht="49.65" customHeight="1">
+    <row r="418" spans="1:13" ht="49.7" customHeight="1">
       <c r="A418" s="17" t="s">
         <v>805</v>
       </c>
@@ -20642,7 +20642,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="419" spans="1:13" ht="49.65" customHeight="1">
+    <row r="419" spans="1:13" ht="49.7" customHeight="1">
       <c r="A419" s="17" t="s">
         <v>805</v>
       </c>
@@ -20681,7 +20681,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="420" spans="1:13" ht="49.65" customHeight="1">
+    <row r="420" spans="1:13" ht="49.7" customHeight="1">
       <c r="A420" s="17" t="s">
         <v>805</v>
       </c>
@@ -20720,7 +20720,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="421" spans="1:13" ht="49.65" customHeight="1">
+    <row r="421" spans="1:13" ht="49.7" customHeight="1">
       <c r="A421" s="17" t="s">
         <v>805</v>
       </c>
@@ -20759,7 +20759,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="422" spans="1:13" ht="49.65" customHeight="1">
+    <row r="422" spans="1:13" ht="49.7" customHeight="1">
       <c r="A422" s="17" t="s">
         <v>805</v>
       </c>
@@ -20798,7 +20798,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="423" spans="1:13" ht="49.65" customHeight="1">
+    <row r="423" spans="1:13" ht="49.7" customHeight="1">
       <c r="A423" s="17" t="s">
         <v>813</v>
       </c>
@@ -20837,7 +20837,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="424" spans="1:13" ht="49.65" customHeight="1">
+    <row r="424" spans="1:13" ht="49.7" customHeight="1">
       <c r="A424" s="17" t="s">
         <v>816</v>
       </c>
@@ -20876,7 +20876,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="425" spans="1:13" ht="49.65" customHeight="1">
+    <row r="425" spans="1:13" ht="49.7" customHeight="1">
       <c r="A425" s="17" t="s">
         <v>819</v>
       </c>
@@ -20915,7 +20915,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="426" spans="1:13" ht="49.65" customHeight="1">
+    <row r="426" spans="1:13" ht="49.7" customHeight="1">
       <c r="A426" s="17" t="s">
         <v>822</v>
       </c>
@@ -20954,7 +20954,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="427" spans="1:13" ht="49.65" customHeight="1">
+    <row r="427" spans="1:13" ht="49.7" customHeight="1">
       <c r="A427" s="17" t="s">
         <v>827</v>
       </c>
@@ -20993,7 +20993,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="428" spans="1:13" ht="49.65" customHeight="1">
+    <row r="428" spans="1:13" ht="49.7" customHeight="1">
       <c r="A428" s="17" t="s">
         <v>827</v>
       </c>
@@ -21032,7 +21032,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="429" spans="1:13" ht="49.65" customHeight="1">
+    <row r="429" spans="1:13" ht="49.7" customHeight="1">
       <c r="A429" s="17" t="s">
         <v>827</v>
       </c>
@@ -21071,7 +21071,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="430" spans="1:13" ht="49.65" customHeight="1">
+    <row r="430" spans="1:13" ht="49.7" customHeight="1">
       <c r="A430" s="17" t="s">
         <v>827</v>
       </c>
@@ -21110,7 +21110,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="431" spans="1:13" ht="49.65" customHeight="1">
+    <row r="431" spans="1:13" ht="49.7" customHeight="1">
       <c r="A431" s="17" t="s">
         <v>831</v>
       </c>
@@ -21149,7 +21149,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="432" spans="1:13" ht="49.65" customHeight="1">
+    <row r="432" spans="1:13" ht="49.7" customHeight="1">
       <c r="A432" s="17" t="s">
         <v>831</v>
       </c>
@@ -21188,7 +21188,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="433" spans="1:13" ht="49.65" customHeight="1">
+    <row r="433" spans="1:13" ht="49.7" customHeight="1">
       <c r="A433" s="17" t="s">
         <v>837</v>
       </c>
@@ -21227,7 +21227,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="434" spans="1:13" ht="49.65" customHeight="1">
+    <row r="434" spans="1:13" ht="49.7" customHeight="1">
       <c r="A434" s="17" t="s">
         <v>837</v>
       </c>
@@ -21266,7 +21266,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="435" spans="1:13" ht="49.65" customHeight="1">
+    <row r="435" spans="1:13" ht="49.7" customHeight="1">
       <c r="A435" s="17" t="s">
         <v>837</v>
       </c>
@@ -21305,7 +21305,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="436" spans="1:13" ht="49.65" customHeight="1">
+    <row r="436" spans="1:13" ht="49.7" customHeight="1">
       <c r="A436" s="17" t="s">
         <v>840</v>
       </c>
@@ -21346,7 +21346,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="437" spans="1:13" ht="49.65" customHeight="1">
+    <row r="437" spans="1:13" ht="49.7" customHeight="1">
       <c r="A437" s="17" t="s">
         <v>840</v>
       </c>
@@ -21387,7 +21387,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="438" spans="1:13" ht="49.65" customHeight="1">
+    <row r="438" spans="1:13" ht="49.7" customHeight="1">
       <c r="A438" s="17" t="s">
         <v>845</v>
       </c>
@@ -21428,7 +21428,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="439" spans="1:13" ht="49.65" customHeight="1">
+    <row r="439" spans="1:13" ht="49.7" customHeight="1">
       <c r="A439" s="17" t="s">
         <v>851</v>
       </c>
@@ -21469,7 +21469,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="440" spans="1:13" ht="49.65" customHeight="1">
+    <row r="440" spans="1:13" ht="49.7" customHeight="1">
       <c r="A440" s="17" t="s">
         <v>851</v>
       </c>
@@ -21510,7 +21510,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="441" spans="1:13" ht="49.65" customHeight="1">
+    <row r="441" spans="1:13" ht="49.7" customHeight="1">
       <c r="A441" s="17" t="s">
         <v>855</v>
       </c>
@@ -21551,7 +21551,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="442" spans="1:13" ht="49.65" customHeight="1">
+    <row r="442" spans="1:13" ht="49.7" customHeight="1">
       <c r="A442" s="17" t="s">
         <v>855</v>
       </c>
@@ -21592,7 +21592,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="443" spans="1:13" ht="49.65" customHeight="1">
+    <row r="443" spans="1:13" ht="49.7" customHeight="1">
       <c r="A443" s="17" t="s">
         <v>855</v>
       </c>
@@ -21633,7 +21633,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="444" spans="1:13" ht="49.65" customHeight="1">
+    <row r="444" spans="1:13" ht="49.7" customHeight="1">
       <c r="A444" s="17" t="s">
         <v>855</v>
       </c>
@@ -21674,7 +21674,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="445" spans="1:13" ht="49.65" customHeight="1">
+    <row r="445" spans="1:13" ht="49.7" customHeight="1">
       <c r="A445" s="17" t="s">
         <v>855</v>
       </c>
@@ -21715,7 +21715,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="446" spans="1:13" ht="49.65" customHeight="1">
+    <row r="446" spans="1:13" ht="49.7" customHeight="1">
       <c r="A446" s="17" t="s">
         <v>855</v>
       </c>
@@ -21756,7 +21756,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="447" spans="1:13" ht="49.65" customHeight="1">
+    <row r="447" spans="1:13" ht="49.7" customHeight="1">
       <c r="A447" s="17" t="s">
         <v>855</v>
       </c>
@@ -21797,7 +21797,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="448" spans="1:13" ht="49.65" customHeight="1">
+    <row r="448" spans="1:13" ht="49.7" customHeight="1">
       <c r="A448" s="17" t="s">
         <v>855</v>
       </c>
@@ -21838,7 +21838,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="449" spans="1:13" ht="49.65" customHeight="1">
+    <row r="449" spans="1:13" ht="49.7" customHeight="1">
       <c r="A449" s="17" t="s">
         <v>855</v>
       </c>
@@ -21879,7 +21879,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="450" spans="1:13" ht="49.65" customHeight="1">
+    <row r="450" spans="1:13" ht="49.7" customHeight="1">
       <c r="A450" s="17" t="s">
         <v>866</v>
       </c>
@@ -21920,7 +21920,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="451" spans="1:13" ht="49.65" customHeight="1">
+    <row r="451" spans="1:13" ht="49.7" customHeight="1">
       <c r="A451" s="17" t="s">
         <v>869</v>
       </c>
@@ -21959,7 +21959,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="452" spans="1:13" ht="49.65" customHeight="1">
+    <row r="452" spans="1:13" ht="49.7" customHeight="1">
       <c r="A452" s="17" t="s">
         <v>875</v>
       </c>
@@ -21998,7 +21998,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="453" spans="1:13" ht="49.65" customHeight="1">
+    <row r="453" spans="1:13" ht="49.7" customHeight="1">
       <c r="A453" s="17" t="s">
         <v>880</v>
       </c>
@@ -22039,7 +22039,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="454" spans="1:13" ht="49.65" customHeight="1">
+    <row r="454" spans="1:13" ht="49.7" customHeight="1">
       <c r="A454" s="17" t="s">
         <v>884</v>
       </c>
@@ -22078,7 +22078,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="455" spans="1:13" ht="49.65" customHeight="1">
+    <row r="455" spans="1:13" ht="49.7" customHeight="1">
       <c r="A455" s="17" t="s">
         <v>889</v>
       </c>
@@ -22117,7 +22117,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="456" spans="1:13" ht="49.65" customHeight="1">
+    <row r="456" spans="1:13" ht="49.7" customHeight="1">
       <c r="A456" s="17" t="s">
         <v>893</v>
       </c>
@@ -22156,7 +22156,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="457" spans="1:13" ht="49.65" customHeight="1">
+    <row r="457" spans="1:13" ht="49.7" customHeight="1">
       <c r="A457" s="17" t="s">
         <v>893</v>
       </c>
@@ -22195,7 +22195,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="458" spans="1:13" ht="49.65" customHeight="1">
+    <row r="458" spans="1:13" ht="49.7" customHeight="1">
       <c r="A458" s="17" t="s">
         <v>897</v>
       </c>
@@ -22234,7 +22234,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="459" spans="1:13" ht="49.65" customHeight="1">
+    <row r="459" spans="1:13" ht="49.7" customHeight="1">
       <c r="A459" s="17" t="s">
         <v>897</v>
       </c>
@@ -22273,7 +22273,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="460" spans="1:13" ht="49.65" customHeight="1">
+    <row r="460" spans="1:13" ht="49.7" customHeight="1">
       <c r="A460" s="17" t="s">
         <v>900</v>
       </c>
@@ -22312,7 +22312,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="461" spans="1:13" ht="49.65" customHeight="1">
+    <row r="461" spans="1:13" ht="49.7" customHeight="1">
       <c r="A461" s="17" t="s">
         <v>900</v>
       </c>
@@ -22351,7 +22351,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="462" spans="1:13" ht="49.65" customHeight="1">
+    <row r="462" spans="1:13" ht="49.7" customHeight="1">
       <c r="A462" s="17" t="s">
         <v>900</v>
       </c>
@@ -22390,7 +22390,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="463" spans="1:13" ht="49.65" customHeight="1">
+    <row r="463" spans="1:13" ht="49.7" customHeight="1">
       <c r="A463" s="17" t="s">
         <v>908</v>
       </c>
@@ -22429,7 +22429,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="464" spans="1:13" ht="49.65" customHeight="1">
+    <row r="464" spans="1:13" ht="49.7" customHeight="1">
       <c r="A464" s="17" t="s">
         <v>913</v>
       </c>
@@ -22470,7 +22470,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="465" spans="1:13" ht="49.65" customHeight="1">
+    <row r="465" spans="1:13" ht="49.7" customHeight="1">
       <c r="A465" s="17" t="s">
         <v>913</v>
       </c>
@@ -22511,7 +22511,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="466" spans="1:13" ht="49.65" customHeight="1">
+    <row r="466" spans="1:13" ht="49.7" customHeight="1">
       <c r="A466" s="17" t="s">
         <v>917</v>
       </c>
@@ -22550,7 +22550,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="467" spans="1:13" ht="49.65" customHeight="1">
+    <row r="467" spans="1:13" ht="49.7" customHeight="1">
       <c r="A467" s="17" t="s">
         <v>917</v>
       </c>
@@ -22589,7 +22589,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="468" spans="1:13" ht="49.65" customHeight="1">
+    <row r="468" spans="1:13" ht="49.7" customHeight="1">
       <c r="A468" s="17" t="s">
         <v>924</v>
       </c>
@@ -22628,7 +22628,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="469" spans="1:13" ht="49.65" customHeight="1">
+    <row r="469" spans="1:13" ht="49.7" customHeight="1">
       <c r="A469" s="17" t="s">
         <v>929</v>
       </c>
@@ -22667,7 +22667,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="470" spans="1:13" ht="49.65" customHeight="1">
+    <row r="470" spans="1:13" ht="49.7" customHeight="1">
       <c r="A470" s="17" t="s">
         <v>929</v>
       </c>
@@ -22706,7 +22706,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="471" spans="1:13" ht="49.65" customHeight="1">
+    <row r="471" spans="1:13" ht="49.7" customHeight="1">
       <c r="A471" s="17" t="s">
         <v>929</v>
       </c>
@@ -22745,7 +22745,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="472" spans="1:13" ht="49.65" customHeight="1">
+    <row r="472" spans="1:13" ht="49.7" customHeight="1">
       <c r="A472" s="17" t="s">
         <v>936</v>
       </c>
@@ -22786,7 +22786,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="473" spans="1:13" ht="49.65" customHeight="1">
+    <row r="473" spans="1:13" ht="49.7" customHeight="1">
       <c r="A473" s="17" t="s">
         <v>942</v>
       </c>
@@ -22825,7 +22825,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="474" spans="1:13" ht="49.65" customHeight="1">
+    <row r="474" spans="1:13" ht="49.7" customHeight="1">
       <c r="A474" s="17" t="s">
         <v>942</v>
       </c>
@@ -22864,7 +22864,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="475" spans="1:13" ht="49.65" customHeight="1">
+    <row r="475" spans="1:13" ht="49.7" customHeight="1">
       <c r="A475" s="17" t="s">
         <v>948</v>
       </c>
@@ -22903,7 +22903,7 @@
       </c>
       <c r="M475" s="16"/>
     </row>
-    <row r="476" spans="1:13" ht="49.65" customHeight="1">
+    <row r="476" spans="1:13" ht="49.7" customHeight="1">
       <c r="A476" s="17" t="s">
         <v>948</v>
       </c>
@@ -22942,7 +22942,7 @@
       </c>
       <c r="M476" s="16"/>
     </row>
-    <row r="477" spans="1:13" ht="49.65" customHeight="1">
+    <row r="477" spans="1:13" ht="49.7" customHeight="1">
       <c r="A477" s="17" t="s">
         <v>948</v>
       </c>
@@ -22981,7 +22981,7 @@
       </c>
       <c r="M477" s="16"/>
     </row>
-    <row r="478" spans="1:13" ht="49.65" customHeight="1">
+    <row r="478" spans="1:13" ht="49.7" customHeight="1">
       <c r="A478" s="17" t="s">
         <v>948</v>
       </c>
@@ -23020,7 +23020,7 @@
       </c>
       <c r="M478" s="16"/>
     </row>
-    <row r="479" spans="1:13" ht="49.65" customHeight="1">
+    <row r="479" spans="1:13" ht="49.7" customHeight="1">
       <c r="A479" s="17" t="s">
         <v>948</v>
       </c>
@@ -23059,7 +23059,7 @@
       </c>
       <c r="M479" s="16"/>
     </row>
-    <row r="480" spans="1:13" ht="49.65" customHeight="1">
+    <row r="480" spans="1:13" ht="49.7" customHeight="1">
       <c r="A480" s="17" t="s">
         <v>957</v>
       </c>
@@ -23100,7 +23100,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="481" spans="1:13" ht="49.65" customHeight="1">
+    <row r="481" spans="1:13" ht="49.7" customHeight="1">
       <c r="A481" s="17" t="s">
         <v>963</v>
       </c>
@@ -23141,7 +23141,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="482" spans="1:13" ht="49.65" customHeight="1">
+    <row r="482" spans="1:13" ht="49.7" customHeight="1">
       <c r="A482" s="17" t="s">
         <v>963</v>
       </c>
@@ -23182,7 +23182,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="483" spans="1:13" ht="49.65" customHeight="1">
+    <row r="483" spans="1:13" ht="49.7" customHeight="1">
       <c r="A483" s="17" t="s">
         <v>963</v>
       </c>
@@ -23223,7 +23223,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="484" spans="1:13" ht="49.65" customHeight="1">
+    <row r="484" spans="1:13" ht="49.7" customHeight="1">
       <c r="A484" s="17" t="s">
         <v>963</v>
       </c>
@@ -23264,7 +23264,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="485" spans="1:13" ht="49.65" customHeight="1">
+    <row r="485" spans="1:13" ht="49.7" customHeight="1">
       <c r="A485" s="17" t="s">
         <v>963</v>
       </c>
@@ -23305,7 +23305,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="486" spans="1:13" ht="49.65" customHeight="1">
+    <row r="486" spans="1:13" ht="49.7" customHeight="1">
       <c r="A486" s="17" t="s">
         <v>963</v>
       </c>
@@ -23346,7 +23346,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="487" spans="1:13" ht="49.65" customHeight="1">
+    <row r="487" spans="1:13" ht="49.7" customHeight="1">
       <c r="A487" s="17" t="s">
         <v>963</v>
       </c>
@@ -23387,7 +23387,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="488" spans="1:13" ht="49.65" customHeight="1">
+    <row r="488" spans="1:13" ht="49.7" customHeight="1">
       <c r="A488" s="17" t="s">
         <v>963</v>
       </c>
@@ -23428,7 +23428,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="489" spans="1:13" ht="49.65" customHeight="1">
+    <row r="489" spans="1:13" ht="49.7" customHeight="1">
       <c r="A489" s="17" t="s">
         <v>963</v>
       </c>
